--- a/loto.xlsx
+++ b/loto.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="7995"/>
@@ -11,7 +11,7 @@
     <sheet name="Plan2" sheetId="2" r:id="rId2"/>
     <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -24,8 +24,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -35,6 +38,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -94,33 +104,43 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -158,7 +178,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -192,6 +212,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -226,9 +247,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -401,14 +423,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AH25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:C17"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3" bestFit="1" customWidth="1"/>
@@ -435,1485 +457,1801 @@
     <col min="23" max="23" width="2" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="3" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="3" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7">
         <v>1008</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3">
+      <c r="C1" s="7"/>
+      <c r="D1" s="7">
+        <f>B1+1</f>
         <v>1009</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3">
+      <c r="E1" s="7"/>
+      <c r="F1" s="7">
+        <f>D1+1</f>
         <v>1010</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3">
+      <c r="G1" s="7"/>
+      <c r="H1" s="7">
+        <f>F1+1</f>
         <v>1011</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3">
+      <c r="I1" s="7"/>
+      <c r="J1" s="7">
+        <f>H1+1</f>
         <v>1012</v>
       </c>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3">
+      <c r="K1" s="7"/>
+      <c r="L1" s="7">
+        <f>J1+1</f>
         <v>1013</v>
       </c>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3">
+      <c r="M1" s="7"/>
+      <c r="N1" s="7">
+        <f>L1+1</f>
         <v>1014</v>
       </c>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3">
+      <c r="O1" s="7"/>
+      <c r="P1" s="7">
+        <f>N1+1</f>
         <v>1015</v>
       </c>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3">
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7">
+        <f>P1+1</f>
         <v>1016</v>
       </c>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3">
+      <c r="S1" s="7"/>
+      <c r="T1" s="7">
+        <f>R1+1</f>
         <v>1017</v>
       </c>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3">
+      <c r="U1" s="7"/>
+      <c r="V1" s="7">
+        <f>T1+1</f>
         <v>1018</v>
       </c>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3">
+      <c r="W1" s="7"/>
+      <c r="X1" s="7">
+        <f>V1+1</f>
         <v>1019</v>
       </c>
-      <c r="Y1" s="3"/>
-    </row>
-    <row r="2" spans="1:25">
-      <c r="A2" s="5">
+      <c r="Y1" s="7"/>
+      <c r="AA1" s="4">
+        <f>SUMPRODUCT(N(B$17:Y$17=11))*2.5</f>
+        <v>5</v>
+      </c>
+      <c r="AB1" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC1">
+        <f>SUMPRODUCT(N(B$2:B$16=AB1))+SUMPRODUCT(N(D$2:D$16=AB1))+SUMPRODUCT(N(F$2:F$16=AB1))+SUMPRODUCT(N(H$2:H$16=AB1))+SUMPRODUCT(N(J$2:J$16=AB1))+SUMPRODUCT(N(L$2:L$16=AB1))+SUMPRODUCT(N(N$2:N$16=AB1))+SUMPRODUCT(N(P$2:P$16=AB1))+SUMPRODUCT(N(R$2:R$16=AB1))+SUMPRODUCT(N(T$2:T$16=AB1))</f>
+        <v>9</v>
+      </c>
+      <c r="AE1">
+        <v>1</v>
+      </c>
+      <c r="AH1" s="3">
         <v>3</v>
       </c>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <f>SUMPRODUCT(N(B$2:B$16=$A2))</f>
         <v>1</v>
       </c>
       <c r="D2">
         <v>2</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <f>SUMPRODUCT(N(D$2:D$16=$A2))</f>
         <v>0</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="1">
         <f>SUMPRODUCT(N(F$2:F$16=$A2))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2" s="2">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1">
         <f>SUMPRODUCT(N(H$2:H$16=$A2))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2" s="2">
+        <v>1</v>
+      </c>
+      <c r="K2" s="1">
         <f>SUMPRODUCT(N(J$2:J$16=$A2))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2" s="2">
+        <v>1</v>
+      </c>
+      <c r="M2" s="1">
         <f>SUMPRODUCT(N(L$2:L$16=$A2))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2" s="2">
+        <v>1</v>
+      </c>
+      <c r="O2" s="1">
         <f>SUMPRODUCT(N(N$2:N$16=$A2))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="1">
         <f>SUMPRODUCT(N(P$2:P$16=$A2))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2" s="2">
+        <v>1</v>
+      </c>
+      <c r="S2" s="1">
         <f>SUMPRODUCT(N(R$2:R$16=$A2))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2" s="2">
+        <v>1</v>
+      </c>
+      <c r="U2" s="1">
         <f>SUMPRODUCT(N(T$2:T$16=$A2))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V2">
         <v>0</v>
       </c>
-      <c r="W2" s="2">
+      <c r="W2" s="1">
         <f>SUMPRODUCT(N(V$2:V$16=$A2))</f>
         <v>0</v>
       </c>
       <c r="X2">
         <v>0</v>
       </c>
-      <c r="Y2" s="2">
+      <c r="Y2" s="1">
         <f>SUMPRODUCT(N(X$2:X$16=$A2))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:25">
-      <c r="A3" s="5">
+      <c r="AA2" s="4">
+        <f>SUMPRODUCT(N(B$17:Y$17=12))*5</f>
+        <v>0</v>
+      </c>
+      <c r="AB2" s="6">
+        <v>2</v>
+      </c>
+      <c r="AC2">
+        <f t="shared" ref="AC2:AC25" si="0">SUMPRODUCT(N(B$2:B$16=AB2))+SUMPRODUCT(N(D$2:D$16=AB2))+SUMPRODUCT(N(F$2:F$16=AB2))+SUMPRODUCT(N(H$2:H$16=AB2))+SUMPRODUCT(N(J$2:J$16=AB2))+SUMPRODUCT(N(L$2:L$16=AB2))+SUMPRODUCT(N(N$2:N$16=AB2))+SUMPRODUCT(N(P$2:P$16=AB2))+SUMPRODUCT(N(R$2:R$16=AB2))+SUMPRODUCT(N(T$2:T$16=AB2))</f>
+        <v>8</v>
+      </c>
+      <c r="AE2">
+        <v>2</v>
+      </c>
+      <c r="AH2" s="3">
         <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>2</v>
       </c>
       <c r="B3">
         <v>3</v>
       </c>
-      <c r="C3" s="2">
-        <f t="shared" ref="C3:E16" si="0">SUMPRODUCT(N(B$2:B$16=$A3))</f>
+      <c r="C3" s="1">
+        <f t="shared" ref="C3:E16" si="1">SUMPRODUCT(N(B$2:B$16=$A3))</f>
         <v>0</v>
       </c>
       <c r="D3">
         <v>4</v>
       </c>
-      <c r="E3" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="E3" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="F3">
         <v>2</v>
       </c>
-      <c r="G3" s="2">
-        <f t="shared" ref="G3" si="1">SUMPRODUCT(N(F$2:F$16=$A3))</f>
-        <v>0</v>
+      <c r="G3" s="1">
+        <f t="shared" ref="G3" si="2">SUMPRODUCT(N(F$2:F$16=$A3))</f>
+        <v>1</v>
       </c>
       <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3" s="2">
-        <f t="shared" ref="I3:K3" si="2">SUMPRODUCT(N(H$2:H$16=$A3))</f>
+        <v>3</v>
+      </c>
+      <c r="I3" s="1">
+        <f t="shared" ref="I3" si="3">SUMPRODUCT(N(H$2:H$16=$A3))</f>
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3" s="2">
-        <f t="shared" ref="K3:M3" si="3">SUMPRODUCT(N(J$2:J$16=$A3))</f>
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="K3" s="1">
+        <f t="shared" ref="K3" si="4">SUMPRODUCT(N(J$2:J$16=$A3))</f>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3" s="2">
-        <f t="shared" ref="M3:M16" si="4">SUMPRODUCT(N(L$2:L$16=$A3))</f>
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="M3" s="1">
+        <f t="shared" ref="M3:M16" si="5">SUMPRODUCT(N(L$2:L$16=$A3))</f>
+        <v>1</v>
       </c>
       <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3" s="2">
-        <f t="shared" ref="O3:Q3" si="5">SUMPRODUCT(N(N$2:N$16=$A3))</f>
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="O3" s="1">
+        <f t="shared" ref="O3" si="6">SUMPRODUCT(N(N$2:N$16=$A3))</f>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="2">
-        <f t="shared" ref="Q3:S3" si="6">SUMPRODUCT(N(P$2:P$16=$A3))</f>
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="Q3" s="1">
+        <f t="shared" ref="Q3" si="7">SUMPRODUCT(N(P$2:P$16=$A3))</f>
+        <v>1</v>
       </c>
       <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3" s="2">
-        <f t="shared" ref="S3:S16" si="7">SUMPRODUCT(N(R$2:R$16=$A3))</f>
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="S3" s="1">
+        <f t="shared" ref="S3:S16" si="8">SUMPRODUCT(N(R$2:R$16=$A3))</f>
+        <v>1</v>
       </c>
       <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3" s="2">
-        <f t="shared" ref="U3:W3" si="8">SUMPRODUCT(N(T$2:T$16=$A3))</f>
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="U3" s="1">
+        <f t="shared" ref="U3" si="9">SUMPRODUCT(N(T$2:T$16=$A3))</f>
+        <v>1</v>
       </c>
       <c r="V3">
         <v>0</v>
       </c>
-      <c r="W3" s="2">
-        <f t="shared" ref="W3:Y3" si="9">SUMPRODUCT(N(V$2:V$16=$A3))</f>
+      <c r="W3" s="1">
+        <f t="shared" ref="W3" si="10">SUMPRODUCT(N(V$2:V$16=$A3))</f>
         <v>0</v>
       </c>
       <c r="X3">
         <v>0</v>
       </c>
-      <c r="Y3" s="2">
-        <f t="shared" ref="Y3:Y16" si="10">SUMPRODUCT(N(X$2:X$16=$A3))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25">
-      <c r="A4" s="5">
+      <c r="Y3" s="1">
+        <f t="shared" ref="Y3:Y16" si="11">SUMPRODUCT(N(X$2:X$16=$A3))</f>
+        <v>0</v>
+      </c>
+      <c r="AA3" s="4">
+        <f>SUMPRODUCT(N(B$17:Y$17=13))*12.5</f>
+        <v>12.5</v>
+      </c>
+      <c r="AB3" s="6">
+        <v>3</v>
+      </c>
+      <c r="AC3">
+        <f t="shared" si="0"/>
         <v>6</v>
+      </c>
+      <c r="AE3">
+        <v>3</v>
+      </c>
+      <c r="AH3" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>3</v>
       </c>
       <c r="B4">
         <v>6</v>
       </c>
-      <c r="C4" s="2">
-        <f t="shared" si="0"/>
+      <c r="C4" s="1">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D4">
         <v>6</v>
       </c>
-      <c r="E4" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
+      <c r="E4" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>4</v>
       </c>
-      <c r="G4" s="2">
-        <f t="shared" ref="G4" si="11">SUMPRODUCT(N(F$2:F$16=$A4))</f>
-        <v>1</v>
+      <c r="G4" s="1">
+        <f t="shared" ref="G4" si="12">SUMPRODUCT(N(F$2:F$16=$A4))</f>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2">
-        <f t="shared" ref="I4:K4" si="12">SUMPRODUCT(N(H$2:H$16=$A4))</f>
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="I4" s="1">
+        <f t="shared" ref="I4" si="13">SUMPRODUCT(N(H$2:H$16=$A4))</f>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4" s="2">
-        <f t="shared" ref="K4:M4" si="13">SUMPRODUCT(N(J$2:J$16=$A4))</f>
+        <v>7</v>
+      </c>
+      <c r="K4" s="1">
+        <f t="shared" ref="K4" si="14">SUMPRODUCT(N(J$2:J$16=$A4))</f>
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="M4" s="1">
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4" s="2">
-        <f t="shared" ref="O4:Q4" si="14">SUMPRODUCT(N(N$2:N$16=$A4))</f>
+        <v>8</v>
+      </c>
+      <c r="O4" s="1">
+        <f t="shared" ref="O4" si="15">SUMPRODUCT(N(N$2:N$16=$A4))</f>
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="2">
-        <f t="shared" ref="Q4:S4" si="15">SUMPRODUCT(N(P$2:P$16=$A4))</f>
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="Q4" s="1">
+        <f t="shared" ref="Q4" si="16">SUMPRODUCT(N(P$2:P$16=$A4))</f>
+        <v>1</v>
       </c>
       <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="S4" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4" s="2">
-        <f t="shared" ref="U4:W4" si="16">SUMPRODUCT(N(T$2:T$16=$A4))</f>
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="U4" s="1">
+        <f t="shared" ref="U4" si="17">SUMPRODUCT(N(T$2:T$16=$A4))</f>
+        <v>1</v>
       </c>
       <c r="V4">
         <v>0</v>
       </c>
-      <c r="W4" s="2">
-        <f t="shared" ref="W4:Y4" si="17">SUMPRODUCT(N(V$2:V$16=$A4))</f>
+      <c r="W4" s="1">
+        <f t="shared" ref="W4" si="18">SUMPRODUCT(N(V$2:V$16=$A4))</f>
         <v>0</v>
       </c>
       <c r="X4">
         <v>0</v>
       </c>
-      <c r="Y4" s="2">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25">
-      <c r="A5" s="5">
+      <c r="Y4" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AA4" s="5">
+        <f>SUMPRODUCT(N(B$17:Y$17=14))</f>
+        <v>0</v>
+      </c>
+      <c r="AB4" s="6">
+        <v>4</v>
+      </c>
+      <c r="AC4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="AH4" s="3">
         <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>9</v>
       </c>
       <c r="B5">
         <v>7</v>
       </c>
-      <c r="C5" s="2">
-        <f t="shared" si="0"/>
+      <c r="C5" s="1">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D5">
         <v>9</v>
       </c>
-      <c r="E5" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="E5" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="F5">
         <v>6</v>
       </c>
-      <c r="G5" s="2">
-        <f t="shared" ref="G5" si="18">SUMPRODUCT(N(F$2:F$16=$A5))</f>
+      <c r="G5" s="1">
+        <f t="shared" ref="G5" si="19">SUMPRODUCT(N(F$2:F$16=$A5))</f>
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2">
-        <f t="shared" ref="I5:K5" si="19">SUMPRODUCT(N(H$2:H$16=$A5))</f>
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" ref="I5" si="20">SUMPRODUCT(N(H$2:H$16=$A5))</f>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5" s="2">
-        <f t="shared" ref="K5:M5" si="20">SUMPRODUCT(N(J$2:J$16=$A5))</f>
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="K5" s="1">
+        <f t="shared" ref="K5" si="21">SUMPRODUCT(N(J$2:J$16=$A5))</f>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5" s="2">
-        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="M5" s="1">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5" s="2">
-        <f t="shared" ref="O5:Q5" si="21">SUMPRODUCT(N(N$2:N$16=$A5))</f>
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="O5" s="1">
+        <f t="shared" ref="O5" si="22">SUMPRODUCT(N(N$2:N$16=$A5))</f>
+        <v>1</v>
       </c>
       <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="2">
-        <f t="shared" ref="Q5:S5" si="22">SUMPRODUCT(N(P$2:P$16=$A5))</f>
+        <v>5</v>
+      </c>
+      <c r="Q5" s="1">
+        <f t="shared" ref="Q5" si="23">SUMPRODUCT(N(P$2:P$16=$A5))</f>
         <v>0</v>
       </c>
       <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5" s="2">
-        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="S5" s="1">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5" s="2">
-        <f t="shared" ref="U5:W5" si="23">SUMPRODUCT(N(T$2:T$16=$A5))</f>
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="U5" s="1">
+        <f t="shared" ref="U5" si="24">SUMPRODUCT(N(T$2:T$16=$A5))</f>
+        <v>1</v>
       </c>
       <c r="V5">
         <v>0</v>
       </c>
-      <c r="W5" s="2">
-        <f t="shared" ref="W5:Y5" si="24">SUMPRODUCT(N(V$2:V$16=$A5))</f>
+      <c r="W5" s="1">
+        <f t="shared" ref="W5" si="25">SUMPRODUCT(N(V$2:V$16=$A5))</f>
         <v>0</v>
       </c>
       <c r="X5">
         <v>0</v>
       </c>
-      <c r="Y5" s="2">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25">
-      <c r="A6" s="5">
+      <c r="Y5" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AA5" s="5">
+        <f>SUMPRODUCT(N(B$17:Y$17=15))</f>
+        <v>0</v>
+      </c>
+      <c r="AB5" s="6">
+        <v>5</v>
+      </c>
+      <c r="AC5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="AH5" s="3">
         <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>10</v>
       </c>
       <c r="B6">
         <v>8</v>
       </c>
-      <c r="C6" s="2">
-        <f t="shared" si="0"/>
+      <c r="C6" s="1">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D6">
         <v>10</v>
       </c>
-      <c r="E6" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="E6" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="F6">
         <v>8</v>
       </c>
-      <c r="G6" s="2">
-        <f t="shared" ref="G6" si="25">SUMPRODUCT(N(F$2:F$16=$A6))</f>
+      <c r="G6" s="1">
+        <f t="shared" ref="G6" si="26">SUMPRODUCT(N(F$2:F$16=$A6))</f>
         <v>1</v>
       </c>
       <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2">
-        <f t="shared" ref="I6:K6" si="26">SUMPRODUCT(N(H$2:H$16=$A6))</f>
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" ref="I6" si="27">SUMPRODUCT(N(H$2:H$16=$A6))</f>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6" s="2">
-        <f t="shared" ref="K6:M6" si="27">SUMPRODUCT(N(J$2:J$16=$A6))</f>
+        <v>11</v>
+      </c>
+      <c r="K6" s="1">
+        <f t="shared" ref="K6" si="28">SUMPRODUCT(N(J$2:J$16=$A6))</f>
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="M6" s="1">
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6" s="2">
-        <f t="shared" ref="O6:Q6" si="28">SUMPRODUCT(N(N$2:N$16=$A6))</f>
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="O6" s="1">
+        <f t="shared" ref="O6" si="29">SUMPRODUCT(N(N$2:N$16=$A6))</f>
+        <v>1</v>
       </c>
       <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="2">
-        <f t="shared" ref="Q6:S6" si="29">SUMPRODUCT(N(P$2:P$16=$A6))</f>
+        <v>6</v>
+      </c>
+      <c r="Q6" s="1">
+        <f t="shared" ref="Q6" si="30">SUMPRODUCT(N(P$2:P$16=$A6))</f>
         <v>0</v>
       </c>
       <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6" s="2">
-        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="S6" s="1">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="T6">
-        <v>0</v>
-      </c>
-      <c r="U6" s="2">
-        <f t="shared" ref="U6:W6" si="30">SUMPRODUCT(N(T$2:T$16=$A6))</f>
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="U6" s="1">
+        <f t="shared" ref="U6" si="31">SUMPRODUCT(N(T$2:T$16=$A6))</f>
+        <v>1</v>
       </c>
       <c r="V6">
         <v>0</v>
       </c>
-      <c r="W6" s="2">
-        <f t="shared" ref="W6:Y6" si="31">SUMPRODUCT(N(V$2:V$16=$A6))</f>
+      <c r="W6" s="1">
+        <f t="shared" ref="W6" si="32">SUMPRODUCT(N(V$2:V$16=$A6))</f>
         <v>0</v>
       </c>
       <c r="X6">
         <v>0</v>
       </c>
-      <c r="Y6" s="2">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25">
-      <c r="A7" s="5">
+      <c r="Y6" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AB6" s="6">
+        <v>6</v>
+      </c>
+      <c r="AC6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="AH6" s="3">
         <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>11</v>
       </c>
       <c r="B7">
         <v>9</v>
       </c>
-      <c r="C7" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
+      <c r="C7" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="D7">
         <v>11</v>
       </c>
-      <c r="E7" s="2">
-        <f t="shared" si="0"/>
+      <c r="E7" s="1">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F7">
         <v>10</v>
       </c>
-      <c r="G7" s="2">
-        <f t="shared" ref="G7" si="32">SUMPRODUCT(N(F$2:F$16=$A7))</f>
-        <v>0</v>
+      <c r="G7" s="1">
+        <f t="shared" ref="G7" si="33">SUMPRODUCT(N(F$2:F$16=$A7))</f>
+        <v>1</v>
       </c>
       <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2">
-        <f t="shared" ref="I7:K7" si="33">SUMPRODUCT(N(H$2:H$16=$A7))</f>
+        <v>9</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" ref="I7" si="34">SUMPRODUCT(N(H$2:H$16=$A7))</f>
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7" s="2">
-        <f t="shared" ref="K7:M7" si="34">SUMPRODUCT(N(J$2:J$16=$A7))</f>
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="K7" s="1">
+        <f t="shared" ref="K7" si="35">SUMPRODUCT(N(J$2:J$16=$A7))</f>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="M7" s="1">
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7" s="2">
-        <f t="shared" ref="O7:Q7" si="35">SUMPRODUCT(N(N$2:N$16=$A7))</f>
+        <v>12</v>
+      </c>
+      <c r="O7" s="1">
+        <f t="shared" ref="O7" si="36">SUMPRODUCT(N(N$2:N$16=$A7))</f>
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="2">
-        <f t="shared" ref="Q7:S7" si="36">SUMPRODUCT(N(P$2:P$16=$A7))</f>
+        <v>7</v>
+      </c>
+      <c r="Q7" s="1">
+        <f t="shared" ref="Q7" si="37">SUMPRODUCT(N(P$2:P$16=$A7))</f>
         <v>0</v>
       </c>
       <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="S7" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="T7">
-        <v>0</v>
-      </c>
-      <c r="U7" s="2">
-        <f t="shared" ref="U7:W7" si="37">SUMPRODUCT(N(T$2:T$16=$A7))</f>
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="U7" s="1">
+        <f t="shared" ref="U7" si="38">SUMPRODUCT(N(T$2:T$16=$A7))</f>
+        <v>1</v>
       </c>
       <c r="V7">
         <v>0</v>
       </c>
-      <c r="W7" s="2">
-        <f t="shared" ref="W7:Y7" si="38">SUMPRODUCT(N(V$2:V$16=$A7))</f>
+      <c r="W7" s="1">
+        <f t="shared" ref="W7" si="39">SUMPRODUCT(N(V$2:V$16=$A7))</f>
         <v>0</v>
       </c>
       <c r="X7">
         <v>0</v>
       </c>
-      <c r="Y7" s="2">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25">
-      <c r="A8" s="5">
+      <c r="Y7" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AB7" s="6">
+        <v>7</v>
+      </c>
+      <c r="AC7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="AH7" s="3">
         <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>12</v>
       </c>
       <c r="B8">
         <v>10</v>
       </c>
-      <c r="C8" s="2">
-        <f t="shared" si="0"/>
+      <c r="C8" s="1">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D8">
         <v>12</v>
       </c>
-      <c r="E8" s="2">
-        <f t="shared" si="0"/>
+      <c r="E8" s="1">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F8">
         <v>11</v>
       </c>
-      <c r="G8" s="2">
-        <f t="shared" ref="G8" si="39">SUMPRODUCT(N(F$2:F$16=$A8))</f>
-        <v>1</v>
+      <c r="G8" s="1">
+        <f t="shared" ref="G8" si="40">SUMPRODUCT(N(F$2:F$16=$A8))</f>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8" s="2">
-        <f t="shared" ref="I8:K8" si="40">SUMPRODUCT(N(H$2:H$16=$A8))</f>
+        <v>10</v>
+      </c>
+      <c r="I8" s="1">
+        <f t="shared" ref="I8" si="41">SUMPRODUCT(N(H$2:H$16=$A8))</f>
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8" s="2">
-        <f t="shared" ref="K8:M8" si="41">SUMPRODUCT(N(J$2:J$16=$A8))</f>
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="K8" s="1">
+        <f t="shared" ref="K8" si="42">SUMPRODUCT(N(J$2:J$16=$A8))</f>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8" s="2">
-        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="M8" s="1">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8" s="2">
-        <f t="shared" ref="O8:Q8" si="42">SUMPRODUCT(N(N$2:N$16=$A8))</f>
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="O8" s="1">
+        <f t="shared" ref="O8" si="43">SUMPRODUCT(N(N$2:N$16=$A8))</f>
+        <v>1</v>
       </c>
       <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="2">
-        <f t="shared" ref="Q8:S8" si="43">SUMPRODUCT(N(P$2:P$16=$A8))</f>
+        <v>8</v>
+      </c>
+      <c r="Q8" s="1">
+        <f t="shared" ref="Q8" si="44">SUMPRODUCT(N(P$2:P$16=$A8))</f>
         <v>0</v>
       </c>
       <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="S8" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="T8">
-        <v>0</v>
-      </c>
-      <c r="U8" s="2">
-        <f t="shared" ref="U8:W8" si="44">SUMPRODUCT(N(T$2:T$16=$A8))</f>
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="U8" s="1">
+        <f t="shared" ref="U8" si="45">SUMPRODUCT(N(T$2:T$16=$A8))</f>
+        <v>1</v>
       </c>
       <c r="V8">
         <v>0</v>
       </c>
-      <c r="W8" s="2">
-        <f t="shared" ref="W8:Y8" si="45">SUMPRODUCT(N(V$2:V$16=$A8))</f>
+      <c r="W8" s="1">
+        <f t="shared" ref="W8" si="46">SUMPRODUCT(N(V$2:V$16=$A8))</f>
         <v>0</v>
       </c>
       <c r="X8">
         <v>0</v>
       </c>
-      <c r="Y8" s="2">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25">
-      <c r="A9" s="5">
+      <c r="Y8" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AB8" s="6">
+        <v>8</v>
+      </c>
+      <c r="AC8">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="AH8" s="3">
         <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>13</v>
       </c>
       <c r="B9">
         <v>12</v>
       </c>
-      <c r="C9" s="2">
-        <f t="shared" si="0"/>
+      <c r="C9" s="1">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D9">
         <v>14</v>
       </c>
-      <c r="E9" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
+      <c r="E9" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="F9">
         <v>13</v>
       </c>
-      <c r="G9" s="2">
-        <f t="shared" ref="G9" si="46">SUMPRODUCT(N(F$2:F$16=$A9))</f>
-        <v>0</v>
+      <c r="G9" s="1">
+        <f t="shared" ref="G9" si="47">SUMPRODUCT(N(F$2:F$16=$A9))</f>
+        <v>1</v>
       </c>
       <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9" s="2">
-        <f t="shared" ref="I9:K9" si="47">SUMPRODUCT(N(H$2:H$16=$A9))</f>
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="I9" s="1">
+        <f t="shared" ref="I9" si="48">SUMPRODUCT(N(H$2:H$16=$A9))</f>
+        <v>1</v>
       </c>
       <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9" s="2">
-        <f t="shared" ref="K9:M9" si="48">SUMPRODUCT(N(J$2:J$16=$A9))</f>
+        <v>15</v>
+      </c>
+      <c r="K9" s="1">
+        <f t="shared" ref="K9" si="49">SUMPRODUCT(N(J$2:J$16=$A9))</f>
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="M9" s="1">
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9" s="2">
-        <f t="shared" ref="O9:Q9" si="49">SUMPRODUCT(N(N$2:N$16=$A9))</f>
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="O9" s="1">
+        <f t="shared" ref="O9" si="50">SUMPRODUCT(N(N$2:N$16=$A9))</f>
+        <v>1</v>
       </c>
       <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="2">
-        <f t="shared" ref="Q9:S9" si="50">SUMPRODUCT(N(P$2:P$16=$A9))</f>
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="Q9" s="1">
+        <f t="shared" ref="Q9" si="51">SUMPRODUCT(N(P$2:P$16=$A9))</f>
+        <v>1</v>
       </c>
       <c r="R9">
-        <v>0</v>
-      </c>
-      <c r="S9" s="2">
-        <f t="shared" si="7"/>
+        <v>14</v>
+      </c>
+      <c r="S9" s="1">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="T9">
-        <v>0</v>
-      </c>
-      <c r="U9" s="2">
-        <f t="shared" ref="U9:W9" si="51">SUMPRODUCT(N(T$2:T$16=$A9))</f>
+        <v>11</v>
+      </c>
+      <c r="U9" s="1">
+        <f t="shared" ref="U9" si="52">SUMPRODUCT(N(T$2:T$16=$A9))</f>
         <v>0</v>
       </c>
       <c r="V9">
         <v>0</v>
       </c>
-      <c r="W9" s="2">
-        <f t="shared" ref="W9:Y9" si="52">SUMPRODUCT(N(V$2:V$16=$A9))</f>
+      <c r="W9" s="1">
+        <f t="shared" ref="W9" si="53">SUMPRODUCT(N(V$2:V$16=$A9))</f>
         <v>0</v>
       </c>
       <c r="X9">
         <v>0</v>
       </c>
-      <c r="Y9" s="2">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25">
-      <c r="A10" s="5">
+      <c r="Y9" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AB9" s="6">
+        <v>9</v>
+      </c>
+      <c r="AC9">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="AE9">
+        <v>9</v>
+      </c>
+      <c r="AH9" s="3">
         <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>15</v>
       </c>
       <c r="B10">
         <v>13</v>
       </c>
-      <c r="C10" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
+      <c r="C10" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="D10">
         <v>15</v>
       </c>
-      <c r="E10" s="2">
-        <f t="shared" si="0"/>
+      <c r="E10" s="1">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F10">
         <v>14</v>
       </c>
-      <c r="G10" s="2">
-        <f t="shared" ref="G10" si="53">SUMPRODUCT(N(F$2:F$16=$A10))</f>
-        <v>0</v>
+      <c r="G10" s="1">
+        <f t="shared" ref="G10" si="54">SUMPRODUCT(N(F$2:F$16=$A10))</f>
+        <v>1</v>
       </c>
       <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10" s="2">
-        <f t="shared" ref="I10:K10" si="54">SUMPRODUCT(N(H$2:H$16=$A10))</f>
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="I10" s="1">
+        <f t="shared" ref="I10" si="55">SUMPRODUCT(N(H$2:H$16=$A10))</f>
+        <v>1</v>
       </c>
       <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10" s="2">
-        <f t="shared" ref="K10:M10" si="55">SUMPRODUCT(N(J$2:J$16=$A10))</f>
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="K10" s="1">
+        <f t="shared" ref="K10" si="56">SUMPRODUCT(N(J$2:J$16=$A10))</f>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10" s="2">
-        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="M10" s="1">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10" s="2">
-        <f t="shared" ref="O10:Q10" si="56">SUMPRODUCT(N(N$2:N$16=$A10))</f>
+        <v>17</v>
+      </c>
+      <c r="O10" s="1">
+        <f t="shared" ref="O10" si="57">SUMPRODUCT(N(N$2:N$16=$A10))</f>
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="2">
-        <f t="shared" ref="Q10:S10" si="57">SUMPRODUCT(N(P$2:P$16=$A10))</f>
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="Q10" s="1">
+        <f t="shared" ref="Q10" si="58">SUMPRODUCT(N(P$2:P$16=$A10))</f>
+        <v>1</v>
       </c>
       <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="S10" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="S10" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="T10">
-        <v>0</v>
-      </c>
-      <c r="U10" s="2">
-        <f t="shared" ref="U10:W10" si="58">SUMPRODUCT(N(T$2:T$16=$A10))</f>
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="U10" s="1">
+        <f t="shared" ref="U10" si="59">SUMPRODUCT(N(T$2:T$16=$A10))</f>
+        <v>1</v>
       </c>
       <c r="V10">
         <v>0</v>
       </c>
-      <c r="W10" s="2">
-        <f t="shared" ref="W10:Y10" si="59">SUMPRODUCT(N(V$2:V$16=$A10))</f>
+      <c r="W10" s="1">
+        <f t="shared" ref="W10" si="60">SUMPRODUCT(N(V$2:V$16=$A10))</f>
         <v>0</v>
       </c>
       <c r="X10">
         <v>0</v>
       </c>
-      <c r="Y10" s="2">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25">
-      <c r="A11" s="5">
+      <c r="Y10" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AB10" s="6">
+        <v>10</v>
+      </c>
+      <c r="AC10">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="AE10">
+        <v>10</v>
+      </c>
+      <c r="AH10" s="3">
         <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>16</v>
       </c>
       <c r="B11">
         <v>16</v>
       </c>
-      <c r="C11" s="2">
-        <f t="shared" si="0"/>
+      <c r="C11" s="1">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D11">
         <v>17</v>
       </c>
-      <c r="E11" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
+      <c r="E11" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="F11">
         <v>15</v>
       </c>
-      <c r="G11" s="2">
-        <f t="shared" ref="G11" si="60">SUMPRODUCT(N(F$2:F$16=$A11))</f>
-        <v>0</v>
+      <c r="G11" s="1">
+        <f t="shared" ref="G11" si="61">SUMPRODUCT(N(F$2:F$16=$A11))</f>
+        <v>1</v>
       </c>
       <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11" s="2">
-        <f t="shared" ref="I11:K11" si="61">SUMPRODUCT(N(H$2:H$16=$A11))</f>
+        <v>17</v>
+      </c>
+      <c r="I11" s="1">
+        <f t="shared" ref="I11" si="62">SUMPRODUCT(N(H$2:H$16=$A11))</f>
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11" s="2">
-        <f t="shared" ref="K11:M11" si="62">SUMPRODUCT(N(J$2:J$16=$A11))</f>
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="K11" s="1">
+        <f t="shared" ref="K11" si="63">SUMPRODUCT(N(J$2:J$16=$A11))</f>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11" s="2">
-        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="M11" s="1">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11" s="2">
-        <f t="shared" ref="O11:Q11" si="63">SUMPRODUCT(N(N$2:N$16=$A11))</f>
+        <v>18</v>
+      </c>
+      <c r="O11" s="1">
+        <f t="shared" ref="O11" si="64">SUMPRODUCT(N(N$2:N$16=$A11))</f>
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="2">
-        <f t="shared" ref="Q11:S11" si="64">SUMPRODUCT(N(P$2:P$16=$A11))</f>
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="Q11" s="1">
+        <f t="shared" ref="Q11" si="65">SUMPRODUCT(N(P$2:P$16=$A11))</f>
+        <v>1</v>
       </c>
       <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="S11" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="S11" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="T11">
-        <v>0</v>
-      </c>
-      <c r="U11" s="2">
-        <f t="shared" ref="U11:W11" si="65">SUMPRODUCT(N(T$2:T$16=$A11))</f>
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="U11" s="1">
+        <f t="shared" ref="U11" si="66">SUMPRODUCT(N(T$2:T$16=$A11))</f>
+        <v>1</v>
       </c>
       <c r="V11">
         <v>0</v>
       </c>
-      <c r="W11" s="2">
-        <f t="shared" ref="W11:Y11" si="66">SUMPRODUCT(N(V$2:V$16=$A11))</f>
+      <c r="W11" s="1">
+        <f t="shared" ref="W11" si="67">SUMPRODUCT(N(V$2:V$16=$A11))</f>
         <v>0</v>
       </c>
       <c r="X11">
         <v>0</v>
       </c>
-      <c r="Y11" s="2">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25">
-      <c r="A12" s="5">
+      <c r="Y11" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AB11" s="6">
+        <v>11</v>
+      </c>
+      <c r="AC11">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="AE11">
+        <v>11</v>
+      </c>
+      <c r="AH11" s="3">
         <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>17</v>
       </c>
       <c r="B12">
         <v>17</v>
       </c>
-      <c r="C12" s="2">
-        <f t="shared" si="0"/>
+      <c r="C12" s="1">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D12">
         <v>18</v>
       </c>
-      <c r="E12" s="2">
-        <f t="shared" si="0"/>
+      <c r="E12" s="1">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F12">
         <v>16</v>
       </c>
-      <c r="G12" s="2">
-        <f t="shared" ref="G12" si="67">SUMPRODUCT(N(F$2:F$16=$A12))</f>
-        <v>1</v>
+      <c r="G12" s="1">
+        <f t="shared" ref="G12" si="68">SUMPRODUCT(N(F$2:F$16=$A12))</f>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12" s="2">
-        <f t="shared" ref="I12:K12" si="68">SUMPRODUCT(N(H$2:H$16=$A12))</f>
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="I12" s="1">
+        <f t="shared" ref="I12" si="69">SUMPRODUCT(N(H$2:H$16=$A12))</f>
+        <v>1</v>
       </c>
       <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12" s="2">
-        <f t="shared" ref="K12:M12" si="69">SUMPRODUCT(N(J$2:J$16=$A12))</f>
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="K12" s="1">
+        <f t="shared" ref="K12" si="70">SUMPRODUCT(N(J$2:J$16=$A12))</f>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="M12" s="1">
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12" s="2">
-        <f t="shared" ref="O12:Q12" si="70">SUMPRODUCT(N(N$2:N$16=$A12))</f>
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="O12" s="1">
+        <f t="shared" ref="O12" si="71">SUMPRODUCT(N(N$2:N$16=$A12))</f>
+        <v>1</v>
       </c>
       <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="2">
-        <f t="shared" ref="Q12:S12" si="71">SUMPRODUCT(N(P$2:P$16=$A12))</f>
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="Q12" s="1">
+        <f t="shared" ref="Q12" si="72">SUMPRODUCT(N(P$2:P$16=$A12))</f>
+        <v>1</v>
       </c>
       <c r="R12">
-        <v>0</v>
-      </c>
-      <c r="S12" s="2">
-        <f t="shared" si="7"/>
+        <v>19</v>
+      </c>
+      <c r="S12" s="1">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="T12">
-        <v>0</v>
-      </c>
-      <c r="U12" s="2">
-        <f t="shared" ref="U12:W12" si="72">SUMPRODUCT(N(T$2:T$16=$A12))</f>
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="U12" s="1">
+        <f t="shared" ref="U12" si="73">SUMPRODUCT(N(T$2:T$16=$A12))</f>
+        <v>1</v>
       </c>
       <c r="V12">
         <v>0</v>
       </c>
-      <c r="W12" s="2">
-        <f t="shared" ref="W12:Y12" si="73">SUMPRODUCT(N(V$2:V$16=$A12))</f>
+      <c r="W12" s="1">
+        <f t="shared" ref="W12" si="74">SUMPRODUCT(N(V$2:V$16=$A12))</f>
         <v>0</v>
       </c>
       <c r="X12">
         <v>0</v>
       </c>
-      <c r="Y12" s="2">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25">
-      <c r="A13" s="5">
+      <c r="Y12" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AB12" s="6">
+        <v>12</v>
+      </c>
+      <c r="AC12">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="AE12">
+        <v>12</v>
+      </c>
+      <c r="AH12" s="3">
         <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>18</v>
       </c>
       <c r="B13">
         <v>18</v>
       </c>
-      <c r="C13" s="2">
-        <f t="shared" si="0"/>
+      <c r="C13" s="1">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D13">
         <v>19</v>
       </c>
-      <c r="E13" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="E13" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="F13">
         <v>19</v>
       </c>
-      <c r="G13" s="2">
-        <f t="shared" ref="G13" si="74">SUMPRODUCT(N(F$2:F$16=$A13))</f>
-        <v>1</v>
+      <c r="G13" s="1">
+        <f t="shared" ref="G13" si="75">SUMPRODUCT(N(F$2:F$16=$A13))</f>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13" s="2">
-        <f t="shared" ref="I13:K13" si="75">SUMPRODUCT(N(H$2:H$16=$A13))</f>
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="I13" s="1">
+        <f t="shared" ref="I13" si="76">SUMPRODUCT(N(H$2:H$16=$A13))</f>
+        <v>1</v>
       </c>
       <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13" s="2">
-        <f t="shared" ref="K13:M13" si="76">SUMPRODUCT(N(J$2:J$16=$A13))</f>
-        <v>0</v>
+        <v>21</v>
+      </c>
+      <c r="K13" s="1">
+        <f t="shared" ref="K13" si="77">SUMPRODUCT(N(J$2:J$16=$A13))</f>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="M13" s="1">
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13" s="2">
-        <f t="shared" ref="O13:Q13" si="77">SUMPRODUCT(N(N$2:N$16=$A13))</f>
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="O13" s="1">
+        <f t="shared" ref="O13" si="78">SUMPRODUCT(N(N$2:N$16=$A13))</f>
+        <v>1</v>
       </c>
       <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="2">
-        <f t="shared" ref="Q13:S13" si="78">SUMPRODUCT(N(P$2:P$16=$A13))</f>
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="Q13" s="1">
+        <f t="shared" ref="Q13" si="79">SUMPRODUCT(N(P$2:P$16=$A13))</f>
+        <v>1</v>
       </c>
       <c r="R13">
-        <v>0</v>
-      </c>
-      <c r="S13" s="2">
-        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="S13" s="1">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="T13">
-        <v>0</v>
-      </c>
-      <c r="U13" s="2">
-        <f t="shared" ref="U13:W13" si="79">SUMPRODUCT(N(T$2:T$16=$A13))</f>
+        <v>17</v>
+      </c>
+      <c r="U13" s="1">
+        <f t="shared" ref="U13" si="80">SUMPRODUCT(N(T$2:T$16=$A13))</f>
         <v>0</v>
       </c>
       <c r="V13">
         <v>0</v>
       </c>
-      <c r="W13" s="2">
-        <f t="shared" ref="W13:Y13" si="80">SUMPRODUCT(N(V$2:V$16=$A13))</f>
+      <c r="W13" s="1">
+        <f t="shared" ref="W13" si="81">SUMPRODUCT(N(V$2:V$16=$A13))</f>
         <v>0</v>
       </c>
       <c r="X13">
         <v>0</v>
       </c>
-      <c r="Y13" s="2">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25">
-      <c r="A14" s="5">
+      <c r="Y13" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AB13" s="6">
+        <v>13</v>
+      </c>
+      <c r="AC13">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="AE13">
+        <v>13</v>
+      </c>
+      <c r="AH13" s="3">
         <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>19</v>
       </c>
       <c r="B14">
         <v>19</v>
       </c>
-      <c r="C14" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="C14" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="D14">
         <v>20</v>
       </c>
-      <c r="E14" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="E14" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="F14">
         <v>21</v>
       </c>
-      <c r="G14" s="2">
-        <f t="shared" ref="G14" si="81">SUMPRODUCT(N(F$2:F$16=$A14))</f>
+      <c r="G14" s="1">
+        <f t="shared" ref="G14" si="82">SUMPRODUCT(N(F$2:F$16=$A14))</f>
         <v>1</v>
       </c>
       <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14" s="2">
-        <f t="shared" ref="I14:K14" si="82">SUMPRODUCT(N(H$2:H$16=$A14))</f>
-        <v>0</v>
+        <v>23</v>
+      </c>
+      <c r="I14" s="1">
+        <f t="shared" ref="I14" si="83">SUMPRODUCT(N(H$2:H$16=$A14))</f>
+        <v>1</v>
       </c>
       <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14" s="2">
-        <f t="shared" ref="K14:M14" si="83">SUMPRODUCT(N(J$2:J$16=$A14))</f>
+        <v>22</v>
+      </c>
+      <c r="K14" s="1">
+        <f t="shared" ref="K14" si="84">SUMPRODUCT(N(J$2:J$16=$A14))</f>
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="M14" s="1">
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14" s="2">
-        <f t="shared" ref="O14:Q14" si="84">SUMPRODUCT(N(N$2:N$16=$A14))</f>
+        <v>23</v>
+      </c>
+      <c r="O14" s="1">
+        <f t="shared" ref="O14" si="85">SUMPRODUCT(N(N$2:N$16=$A14))</f>
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="2">
-        <f t="shared" ref="Q14:S14" si="85">SUMPRODUCT(N(P$2:P$16=$A14))</f>
+        <v>20</v>
+      </c>
+      <c r="Q14" s="1">
+        <f t="shared" ref="Q14" si="86">SUMPRODUCT(N(P$2:P$16=$A14))</f>
         <v>0</v>
       </c>
       <c r="R14">
-        <v>0</v>
-      </c>
-      <c r="S14" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v>21</v>
+      </c>
+      <c r="S14" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="T14">
-        <v>0</v>
-      </c>
-      <c r="U14" s="2">
-        <f t="shared" ref="U14:W14" si="86">SUMPRODUCT(N(T$2:T$16=$A14))</f>
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="U14" s="1">
+        <f t="shared" ref="U14" si="87">SUMPRODUCT(N(T$2:T$16=$A14))</f>
+        <v>1</v>
       </c>
       <c r="V14">
         <v>0</v>
       </c>
-      <c r="W14" s="2">
-        <f t="shared" ref="W14:Y14" si="87">SUMPRODUCT(N(V$2:V$16=$A14))</f>
+      <c r="W14" s="1">
+        <f t="shared" ref="W14" si="88">SUMPRODUCT(N(V$2:V$16=$A14))</f>
         <v>0</v>
       </c>
       <c r="X14">
         <v>0</v>
       </c>
-      <c r="Y14" s="2">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25">
-      <c r="A15" s="5">
+      <c r="Y14" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AB14" s="6">
+        <v>14</v>
+      </c>
+      <c r="AC14">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="AH14" s="3">
         <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>21</v>
       </c>
       <c r="B15">
         <v>21</v>
       </c>
-      <c r="C15" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="C15" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="D15">
         <v>22</v>
       </c>
-      <c r="E15" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
+      <c r="E15" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="F15">
         <v>22</v>
       </c>
-      <c r="G15" s="2">
-        <f t="shared" ref="G15" si="88">SUMPRODUCT(N(F$2:F$16=$A15))</f>
-        <v>0</v>
+      <c r="G15" s="1">
+        <f t="shared" ref="G15" si="89">SUMPRODUCT(N(F$2:F$16=$A15))</f>
+        <v>1</v>
       </c>
       <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15" s="2">
-        <f t="shared" ref="I15:K15" si="89">SUMPRODUCT(N(H$2:H$16=$A15))</f>
+        <v>24</v>
+      </c>
+      <c r="I15" s="1">
+        <f t="shared" ref="I15" si="90">SUMPRODUCT(N(H$2:H$16=$A15))</f>
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15" s="2">
-        <f t="shared" ref="K15:M15" si="90">SUMPRODUCT(N(J$2:J$16=$A15))</f>
-        <v>0</v>
+        <v>24</v>
+      </c>
+      <c r="K15" s="1">
+        <f t="shared" ref="K15" si="91">SUMPRODUCT(N(J$2:J$16=$A15))</f>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>21</v>
+      </c>
+      <c r="M15" s="1">
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15" s="2">
-        <f t="shared" ref="O15:Q15" si="91">SUMPRODUCT(N(N$2:N$16=$A15))</f>
+        <v>24</v>
+      </c>
+      <c r="O15" s="1">
+        <f t="shared" ref="O15" si="92">SUMPRODUCT(N(N$2:N$16=$A15))</f>
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="2">
-        <f t="shared" ref="Q15:S15" si="92">SUMPRODUCT(N(P$2:P$16=$A15))</f>
-        <v>0</v>
+        <v>21</v>
+      </c>
+      <c r="Q15" s="1">
+        <f t="shared" ref="Q15" si="93">SUMPRODUCT(N(P$2:P$16=$A15))</f>
+        <v>1</v>
       </c>
       <c r="R15">
-        <v>0</v>
-      </c>
-      <c r="S15" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v>23</v>
+      </c>
+      <c r="S15" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="T15">
-        <v>0</v>
-      </c>
-      <c r="U15" s="2">
-        <f t="shared" ref="U15:W15" si="93">SUMPRODUCT(N(T$2:T$16=$A15))</f>
-        <v>0</v>
+        <v>21</v>
+      </c>
+      <c r="U15" s="1">
+        <f t="shared" ref="U15" si="94">SUMPRODUCT(N(T$2:T$16=$A15))</f>
+        <v>1</v>
       </c>
       <c r="V15">
         <v>0</v>
       </c>
-      <c r="W15" s="2">
-        <f t="shared" ref="W15:Y15" si="94">SUMPRODUCT(N(V$2:V$16=$A15))</f>
+      <c r="W15" s="1">
+        <f t="shared" ref="W15" si="95">SUMPRODUCT(N(V$2:V$16=$A15))</f>
         <v>0</v>
       </c>
       <c r="X15">
         <v>0</v>
       </c>
-      <c r="Y15" s="2">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25">
-      <c r="A16" s="5">
+      <c r="Y15" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AB15" s="6">
+        <v>15</v>
+      </c>
+      <c r="AC15">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="AE15">
+        <v>15</v>
+      </c>
+      <c r="AH15" s="3">
         <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>23</v>
       </c>
       <c r="B16">
         <v>22</v>
       </c>
-      <c r="C16" s="2">
-        <f t="shared" si="0"/>
+      <c r="C16" s="1">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D16">
         <v>24</v>
       </c>
-      <c r="E16" s="2">
-        <f t="shared" si="0"/>
+      <c r="E16" s="1">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F16">
         <v>23</v>
       </c>
-      <c r="G16" s="2">
-        <f t="shared" ref="G16" si="95">SUMPRODUCT(N(F$2:F$16=$A16))</f>
-        <v>0</v>
+      <c r="G16" s="1">
+        <f t="shared" ref="G16" si="96">SUMPRODUCT(N(F$2:F$16=$A16))</f>
+        <v>1</v>
       </c>
       <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16" s="2">
-        <f t="shared" ref="I16:K16" si="96">SUMPRODUCT(N(H$2:H$16=$A16))</f>
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="I16" s="1">
+        <f t="shared" ref="I16" si="97">SUMPRODUCT(N(H$2:H$16=$A16))</f>
+        <v>1</v>
       </c>
       <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16" s="2">
-        <f t="shared" ref="K16:M16" si="97">SUMPRODUCT(N(J$2:J$16=$A16))</f>
+        <v>25</v>
+      </c>
+      <c r="K16" s="1">
+        <f t="shared" ref="K16" si="98">SUMPRODUCT(N(J$2:J$16=$A16))</f>
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>23</v>
+      </c>
+      <c r="M16" s="1">
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="O16" s="2">
-        <f t="shared" ref="O16:Q16" si="98">SUMPRODUCT(N(N$2:N$16=$A16))</f>
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="O16" s="1">
+        <f t="shared" ref="O16" si="99">SUMPRODUCT(N(N$2:N$16=$A16))</f>
+        <v>1</v>
       </c>
       <c r="P16">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="2">
-        <f t="shared" ref="Q16:S16" si="99">SUMPRODUCT(N(P$2:P$16=$A16))</f>
-        <v>0</v>
+        <v>23</v>
+      </c>
+      <c r="Q16" s="1">
+        <f t="shared" ref="Q16" si="100">SUMPRODUCT(N(P$2:P$16=$A16))</f>
+        <v>1</v>
       </c>
       <c r="R16">
-        <v>0</v>
-      </c>
-      <c r="S16" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="S16" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="T16">
-        <v>0</v>
-      </c>
-      <c r="U16" s="2">
-        <f t="shared" ref="U16:W16" si="100">SUMPRODUCT(N(T$2:T$16=$A16))</f>
-        <v>0</v>
+        <v>23</v>
+      </c>
+      <c r="U16" s="1">
+        <f t="shared" ref="U16" si="101">SUMPRODUCT(N(T$2:T$16=$A16))</f>
+        <v>1</v>
       </c>
       <c r="V16">
         <v>0</v>
       </c>
-      <c r="W16" s="2">
-        <f t="shared" ref="W16:Y16" si="101">SUMPRODUCT(N(V$2:V$16=$A16))</f>
+      <c r="W16" s="1">
+        <f t="shared" ref="W16" si="102">SUMPRODUCT(N(V$2:V$16=$A16))</f>
         <v>0</v>
       </c>
       <c r="X16">
         <v>0</v>
       </c>
-      <c r="Y16" s="2">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="1">
+      <c r="Y16" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AB16" s="6">
+        <v>16</v>
+      </c>
+      <c r="AC16">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="AE16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="8">
         <f>SUM(C2:C16)</f>
         <v>11</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1">
+      <c r="C17" s="8"/>
+      <c r="D17" s="8">
         <f>SUM(E2:E16)</f>
+        <v>9</v>
+      </c>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8">
+        <f>SUM(G2:G16)</f>
+        <v>10</v>
+      </c>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8">
+        <f>SUM(I2:I16)</f>
+        <v>10</v>
+      </c>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8">
+        <f>SUM(K2:K16)</f>
+        <v>10</v>
+      </c>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8">
+        <f>SUM(M2:M16)</f>
+        <v>11</v>
+      </c>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8">
+        <f>SUM(O2:O16)</f>
+        <v>9</v>
+      </c>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8">
+        <f>SUM(Q2:Q16)</f>
+        <v>10</v>
+      </c>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8">
+        <f>SUM(S2:S16)</f>
+        <v>10</v>
+      </c>
+      <c r="S17" s="8"/>
+      <c r="T17" s="8">
+        <f>SUM(U2:U16)</f>
+        <v>13</v>
+      </c>
+      <c r="U17" s="8"/>
+      <c r="V17" s="8">
+        <f>SUM(W2:W16)</f>
+        <v>0</v>
+      </c>
+      <c r="W17" s="8"/>
+      <c r="X17" s="8">
+        <f>SUM(Y2:Y16)</f>
+        <v>0</v>
+      </c>
+      <c r="Y17" s="8"/>
+      <c r="AB17" s="6">
+        <v>17</v>
+      </c>
+      <c r="AC17">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1">
-        <f>SUM(G2:G16)</f>
-        <v>6</v>
-      </c>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1">
-        <f>SUM(I2:I16)</f>
-        <v>0</v>
-      </c>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1">
-        <f>SUM(K2:K16)</f>
-        <v>0</v>
-      </c>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1">
-        <f>SUM(M2:M16)</f>
-        <v>0</v>
-      </c>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1">
-        <f>SUM(O2:O16)</f>
-        <v>0</v>
-      </c>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1">
-        <f>SUM(Q2:Q16)</f>
-        <v>0</v>
-      </c>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1">
-        <f>SUM(S2:S16)</f>
-        <v>0</v>
-      </c>
-      <c r="S17" s="1"/>
-      <c r="T17" s="1">
-        <f>SUM(U2:U16)</f>
-        <v>0</v>
-      </c>
-      <c r="U17" s="1"/>
-      <c r="V17" s="1">
-        <f>SUM(W2:W16)</f>
-        <v>0</v>
-      </c>
-      <c r="W17" s="1"/>
-      <c r="X17" s="1">
-        <f>SUM(Y2:Y16)</f>
-        <v>0</v>
-      </c>
-      <c r="Y17" s="1"/>
+      <c r="AE17">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AB18" s="6">
+        <v>18</v>
+      </c>
+      <c r="AC18">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="AE18">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AB19" s="6">
+        <v>19</v>
+      </c>
+      <c r="AC19">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="AE19">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AB20" s="6">
+        <v>20</v>
+      </c>
+      <c r="AC20">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AB21" s="6">
+        <v>21</v>
+      </c>
+      <c r="AC21">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="AE21">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AB22" s="6">
+        <v>22</v>
+      </c>
+      <c r="AC22">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AB23" s="6">
+        <v>23</v>
+      </c>
+      <c r="AC23">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="AE23">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AB24" s="6">
+        <v>24</v>
+      </c>
+      <c r="AC24">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AB25" s="6">
+        <v>25</v>
+      </c>
+      <c r="AC25">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="R17:S17"/>
     <mergeCell ref="T1:U1"/>
     <mergeCell ref="V1:W1"/>
     <mergeCell ref="X1:Y1"/>
     <mergeCell ref="T17:U17"/>
     <mergeCell ref="V17:W17"/>
     <mergeCell ref="X17:Y17"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="R17:S17"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="F17:G17"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -1921,24 +2259,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/loto.xlsx
+++ b/loto.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="20115" windowHeight="7935"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -427,7 +427,7 @@
   <dimension ref="A1:AH25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="AE1" sqref="AE1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -458,8 +458,7 @@
     <col min="24" max="24" width="3" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="2" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="3" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="3" bestFit="1" customWidth="1"/>
     <col min="31" max="32" width="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -468,80 +467,76 @@
         <v>0</v>
       </c>
       <c r="B1" s="7">
-        <v>1008</v>
+        <v>1020</v>
       </c>
       <c r="C1" s="7"/>
       <c r="D1" s="7">
         <f>B1+1</f>
-        <v>1009</v>
+        <v>1021</v>
       </c>
       <c r="E1" s="7"/>
       <c r="F1" s="7">
         <f>D1+1</f>
-        <v>1010</v>
+        <v>1022</v>
       </c>
       <c r="G1" s="7"/>
       <c r="H1" s="7">
         <f>F1+1</f>
-        <v>1011</v>
+        <v>1023</v>
       </c>
       <c r="I1" s="7"/>
       <c r="J1" s="7">
         <f>H1+1</f>
-        <v>1012</v>
+        <v>1024</v>
       </c>
       <c r="K1" s="7"/>
       <c r="L1" s="7">
         <f>J1+1</f>
-        <v>1013</v>
+        <v>1025</v>
       </c>
       <c r="M1" s="7"/>
       <c r="N1" s="7">
         <f>L1+1</f>
-        <v>1014</v>
+        <v>1026</v>
       </c>
       <c r="O1" s="7"/>
       <c r="P1" s="7">
         <f>N1+1</f>
-        <v>1015</v>
+        <v>1027</v>
       </c>
       <c r="Q1" s="7"/>
       <c r="R1" s="7">
-        <f>P1+1</f>
-        <v>1016</v>
+        <v>0</v>
       </c>
       <c r="S1" s="7"/>
       <c r="T1" s="7">
         <f>R1+1</f>
-        <v>1017</v>
+        <v>1</v>
       </c>
       <c r="U1" s="7"/>
       <c r="V1" s="7">
         <f>T1+1</f>
-        <v>1018</v>
+        <v>2</v>
       </c>
       <c r="W1" s="7"/>
       <c r="X1" s="7">
         <f>V1+1</f>
-        <v>1019</v>
+        <v>3</v>
       </c>
       <c r="Y1" s="7"/>
       <c r="AA1" s="4">
         <f>SUMPRODUCT(N(B$17:Y$17=11))*2.5</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AB1" s="6">
         <v>1</v>
       </c>
       <c r="AC1">
-        <f>SUMPRODUCT(N(B$2:B$16=AB1))+SUMPRODUCT(N(D$2:D$16=AB1))+SUMPRODUCT(N(F$2:F$16=AB1))+SUMPRODUCT(N(H$2:H$16=AB1))+SUMPRODUCT(N(J$2:J$16=AB1))+SUMPRODUCT(N(L$2:L$16=AB1))+SUMPRODUCT(N(N$2:N$16=AB1))+SUMPRODUCT(N(P$2:P$16=AB1))+SUMPRODUCT(N(R$2:R$16=AB1))+SUMPRODUCT(N(T$2:T$16=AB1))</f>
-        <v>9</v>
-      </c>
-      <c r="AE1">
+        <f>SUMPRODUCT(N(B$2:B$16=AB1))+SUMPRODUCT(N(D$2:D$16=AB1))+SUMPRODUCT(N(F$2:F$16=AB1))+SUMPRODUCT(N(H$2:H$16=AB1))+SUMPRODUCT(N(J$2:J$16=AB1))+SUMPRODUCT(N(L$2:L$16=AB1))+SUMPRODUCT(N(N$2:N$16=AB1))+SUMPRODUCT(N(P$2:P$16=AB1))+SUMPRODUCT(N(R$2:R$16=AB1))+SUMPRODUCT(N(T$2:T$16=AB1))+SUMPRODUCT(N(V$2:V$16=AB1))+SUMPRODUCT(N(X$2:X$16=AB1))</f>
         <v>1</v>
       </c>
       <c r="AH1" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
@@ -549,74 +544,74 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1">
         <f>SUMPRODUCT(N(B$2:B$16=$A2))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2" s="1">
         <f>SUMPRODUCT(N(D$2:D$16=$A2))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" s="1">
         <f>SUMPRODUCT(N(F$2:F$16=$A2))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
         <f>SUMPRODUCT(N(H$2:H$16=$A2))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <f>SUMPRODUCT(N(J$2:J$16=$A2))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2" s="1">
         <f>SUMPRODUCT(N(L$2:L$16=$A2))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O2" s="1">
         <f>SUMPRODUCT(N(N$2:N$16=$A2))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="1">
         <f>SUMPRODUCT(N(P$2:P$16=$A2))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S2" s="1">
         <f>SUMPRODUCT(N(R$2:R$16=$A2))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
         <f>SUMPRODUCT(N(T$2:T$16=$A2))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V2">
         <v>0</v>
@@ -640,14 +635,11 @@
         <v>2</v>
       </c>
       <c r="AC2">
-        <f t="shared" ref="AC2:AC25" si="0">SUMPRODUCT(N(B$2:B$16=AB2))+SUMPRODUCT(N(D$2:D$16=AB2))+SUMPRODUCT(N(F$2:F$16=AB2))+SUMPRODUCT(N(H$2:H$16=AB2))+SUMPRODUCT(N(J$2:J$16=AB2))+SUMPRODUCT(N(L$2:L$16=AB2))+SUMPRODUCT(N(N$2:N$16=AB2))+SUMPRODUCT(N(P$2:P$16=AB2))+SUMPRODUCT(N(R$2:R$16=AB2))+SUMPRODUCT(N(T$2:T$16=AB2))</f>
-        <v>8</v>
-      </c>
-      <c r="AE2">
+        <f t="shared" ref="AC2:AC25" si="0">SUMPRODUCT(N(B$2:B$16=AB2))+SUMPRODUCT(N(D$2:D$16=AB2))+SUMPRODUCT(N(F$2:F$16=AB2))+SUMPRODUCT(N(H$2:H$16=AB2))+SUMPRODUCT(N(J$2:J$16=AB2))+SUMPRODUCT(N(L$2:L$16=AB2))+SUMPRODUCT(N(N$2:N$16=AB2))+SUMPRODUCT(N(P$2:P$16=AB2))+SUMPRODUCT(N(R$2:R$16=AB2))+SUMPRODUCT(N(T$2:T$16=AB2))+SUMPRODUCT(N(V$2:V$16=AB2))+SUMPRODUCT(N(X$2:X$16=AB2))</f>
+        <v>1</v>
+      </c>
+      <c r="AH2" s="3">
         <v>2</v>
-      </c>
-      <c r="AH2" s="3">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
@@ -659,70 +651,70 @@
       </c>
       <c r="C3" s="1">
         <f t="shared" ref="C3:E16" si="1">SUMPRODUCT(N(B$2:B$16=$A3))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G3" s="1">
         <f t="shared" ref="G3" si="2">SUMPRODUCT(N(F$2:F$16=$A3))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I3" s="1">
         <f t="shared" ref="I3" si="3">SUMPRODUCT(N(H$2:H$16=$A3))</f>
         <v>0</v>
       </c>
       <c r="J3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
         <f t="shared" ref="K3" si="4">SUMPRODUCT(N(J$2:J$16=$A3))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M3" s="1">
         <f t="shared" ref="M3:M16" si="5">SUMPRODUCT(N(L$2:L$16=$A3))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O3" s="1">
         <f t="shared" ref="O3" si="6">SUMPRODUCT(N(N$2:N$16=$A3))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="1">
         <f t="shared" ref="Q3" si="7">SUMPRODUCT(N(P$2:P$16=$A3))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S3" s="1">
         <f t="shared" ref="S3:S16" si="8">SUMPRODUCT(N(R$2:R$16=$A3))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
         <f t="shared" ref="U3" si="9">SUMPRODUCT(N(T$2:T$16=$A3))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V3">
         <v>0</v>
@@ -740,20 +732,17 @@
       </c>
       <c r="AA3" s="4">
         <f>SUMPRODUCT(N(B$17:Y$17=13))*12.5</f>
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="AB3" s="6">
         <v>3</v>
       </c>
       <c r="AC3">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="AE3">
+        <v>1</v>
+      </c>
+      <c r="AH3" s="3">
         <v>3</v>
-      </c>
-      <c r="AH3" s="3">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
@@ -761,7 +750,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1">
         <f t="shared" si="1"/>
@@ -775,60 +764,60 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G4" s="1">
         <f t="shared" ref="G4" si="12">SUMPRODUCT(N(F$2:F$16=$A4))</f>
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I4" s="1">
         <f t="shared" ref="I4" si="13">SUMPRODUCT(N(H$2:H$16=$A4))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
         <f t="shared" ref="K4" si="14">SUMPRODUCT(N(J$2:J$16=$A4))</f>
         <v>0</v>
       </c>
       <c r="L4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M4" s="1">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="O4" s="1">
         <f t="shared" ref="O4" si="15">SUMPRODUCT(N(N$2:N$16=$A4))</f>
         <v>0</v>
       </c>
       <c r="P4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="1">
         <f t="shared" ref="Q4" si="16">SUMPRODUCT(N(P$2:P$16=$A4))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S4" s="1">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
         <f t="shared" ref="U4" si="17">SUMPRODUCT(N(T$2:T$16=$A4))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V4">
         <v>0</v>
@@ -853,85 +842,85 @@
       </c>
       <c r="AC4">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AH4" s="3">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>7</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <v>9</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" ref="G5" si="19">SUMPRODUCT(N(F$2:F$16=$A5))</f>
         <v>0</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I5" s="1">
         <f t="shared" ref="I5" si="20">SUMPRODUCT(N(H$2:H$16=$A5))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
         <f t="shared" ref="K5" si="21">SUMPRODUCT(N(J$2:J$16=$A5))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M5" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N5">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="O5" s="1">
         <f t="shared" ref="O5" si="22">SUMPRODUCT(N(N$2:N$16=$A5))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="1">
         <f t="shared" ref="Q5" si="23">SUMPRODUCT(N(P$2:P$16=$A5))</f>
         <v>0</v>
       </c>
       <c r="R5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S5" s="1">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="T5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
         <f t="shared" ref="U5" si="24">SUMPRODUCT(N(T$2:T$16=$A5))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V5">
         <v>0</v>
@@ -956,10 +945,13 @@
       </c>
       <c r="AC5">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="AE5">
+        <v>5</v>
       </c>
       <c r="AH5" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
@@ -967,11 +959,11 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>10</v>
@@ -981,60 +973,60 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" ref="G6" si="26">SUMPRODUCT(N(F$2:F$16=$A6))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I6" s="1">
         <f t="shared" ref="I6" si="27">SUMPRODUCT(N(H$2:H$16=$A6))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
         <f t="shared" ref="K6" si="28">SUMPRODUCT(N(J$2:J$16=$A6))</f>
         <v>0</v>
       </c>
       <c r="L6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M6" s="1">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="O6" s="1">
         <f t="shared" ref="O6" si="29">SUMPRODUCT(N(N$2:N$16=$A6))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="1">
         <f t="shared" ref="Q6" si="30">SUMPRODUCT(N(P$2:P$16=$A6))</f>
         <v>0</v>
       </c>
       <c r="R6">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="S6" s="1">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="T6">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
         <f t="shared" ref="U6" si="31">SUMPRODUCT(N(T$2:T$16=$A6))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V6">
         <v>0</v>
@@ -1055,10 +1047,10 @@
       </c>
       <c r="AC6">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AH6" s="3">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
@@ -1066,74 +1058,74 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" ref="G7" si="33">SUMPRODUCT(N(F$2:F$16=$A7))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I7" s="1">
         <f t="shared" ref="I7" si="34">SUMPRODUCT(N(H$2:H$16=$A7))</f>
         <v>0</v>
       </c>
       <c r="J7">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
         <f t="shared" ref="K7" si="35">SUMPRODUCT(N(J$2:J$16=$A7))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M7" s="1">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="O7" s="1">
         <f t="shared" ref="O7" si="36">SUMPRODUCT(N(N$2:N$16=$A7))</f>
         <v>0</v>
       </c>
       <c r="P7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="1">
         <f t="shared" ref="Q7" si="37">SUMPRODUCT(N(P$2:P$16=$A7))</f>
         <v>0</v>
       </c>
       <c r="R7">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="S7" s="1">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
         <f t="shared" ref="U7" si="38">SUMPRODUCT(N(T$2:T$16=$A7))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V7">
         <v>0</v>
@@ -1154,10 +1146,10 @@
       </c>
       <c r="AC7">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AH7" s="3">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
@@ -1165,74 +1157,74 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D8">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" ref="G8" si="40">SUMPRODUCT(N(F$2:F$16=$A8))</f>
         <v>0</v>
       </c>
       <c r="H8">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I8" s="1">
         <f t="shared" ref="I8" si="41">SUMPRODUCT(N(H$2:H$16=$A8))</f>
         <v>0</v>
       </c>
       <c r="J8">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
         <f t="shared" ref="K8" si="42">SUMPRODUCT(N(J$2:J$16=$A8))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M8" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N8">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="O8" s="1">
         <f t="shared" ref="O8" si="43">SUMPRODUCT(N(N$2:N$16=$A8))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="1">
         <f t="shared" ref="Q8" si="44">SUMPRODUCT(N(P$2:P$16=$A8))</f>
         <v>0</v>
       </c>
       <c r="R8">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="S8" s="1">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T8">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
         <f t="shared" ref="U8" si="45">SUMPRODUCT(N(T$2:T$16=$A8))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V8">
         <v>0</v>
@@ -1253,81 +1245,81 @@
       </c>
       <c r="AC8">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AH8" s="3">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
+        <v>15</v>
+      </c>
+      <c r="B9">
         <v>13</v>
       </c>
-      <c r="B9">
-        <v>12</v>
-      </c>
       <c r="C9" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D9">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G9" s="1">
         <f t="shared" ref="G9" si="47">SUMPRODUCT(N(F$2:F$16=$A9))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="I9" s="1">
         <f t="shared" ref="I9" si="48">SUMPRODUCT(N(H$2:H$16=$A9))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
         <f t="shared" ref="K9" si="49">SUMPRODUCT(N(J$2:J$16=$A9))</f>
         <v>0</v>
       </c>
       <c r="L9">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="M9" s="1">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
         <f t="shared" ref="O9" si="50">SUMPRODUCT(N(N$2:N$16=$A9))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="1">
         <f t="shared" ref="Q9" si="51">SUMPRODUCT(N(P$2:P$16=$A9))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R9">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="S9" s="1">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="T9">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
         <f t="shared" ref="U9" si="52">SUMPRODUCT(N(T$2:T$16=$A9))</f>
@@ -1352,88 +1344,88 @@
       </c>
       <c r="AC9">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AE9">
         <v>9</v>
       </c>
       <c r="AH9" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
+        <v>16</v>
+      </c>
+      <c r="B10">
         <v>15</v>
       </c>
-      <c r="B10">
-        <v>13</v>
-      </c>
       <c r="C10" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F10">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G10" s="1">
         <f t="shared" ref="G10" si="54">SUMPRODUCT(N(F$2:F$16=$A10))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I10" s="1">
         <f t="shared" ref="I10" si="55">SUMPRODUCT(N(H$2:H$16=$A10))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
         <f t="shared" ref="K10" si="56">SUMPRODUCT(N(J$2:J$16=$A10))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="M10" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N10">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
         <f t="shared" ref="O10" si="57">SUMPRODUCT(N(N$2:N$16=$A10))</f>
         <v>0</v>
       </c>
       <c r="P10">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="1">
         <f t="shared" ref="Q10" si="58">SUMPRODUCT(N(P$2:P$16=$A10))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R10">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="S10" s="1">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T10">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
         <f t="shared" ref="U10" si="59">SUMPRODUCT(N(T$2:T$16=$A10))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V10">
         <v>0</v>
@@ -1454,88 +1446,85 @@
       </c>
       <c r="AC10">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="AE10">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AH10" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11">
         <v>16</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F11">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G11" s="1">
         <f t="shared" ref="G11" si="61">SUMPRODUCT(N(F$2:F$16=$A11))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="I11" s="1">
         <f t="shared" ref="I11" si="62">SUMPRODUCT(N(H$2:H$16=$A11))</f>
         <v>0</v>
       </c>
       <c r="J11">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
         <f t="shared" ref="K11" si="63">SUMPRODUCT(N(J$2:J$16=$A11))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="M11" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N11">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
         <f t="shared" ref="O11" si="64">SUMPRODUCT(N(N$2:N$16=$A11))</f>
         <v>0</v>
       </c>
       <c r="P11">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="1">
         <f t="shared" ref="Q11" si="65">SUMPRODUCT(N(P$2:P$16=$A11))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R11">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="S11" s="1">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T11">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
         <f t="shared" ref="U11" si="66">SUMPRODUCT(N(T$2:T$16=$A11))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V11">
         <v>0</v>
@@ -1556,88 +1545,85 @@
       </c>
       <c r="AC11">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="AE11">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="AH11" s="3">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D12">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E12" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F12">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G12" s="1">
         <f t="shared" ref="G12" si="68">SUMPRODUCT(N(F$2:F$16=$A12))</f>
         <v>0</v>
       </c>
       <c r="H12">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="I12" s="1">
         <f t="shared" ref="I12" si="69">SUMPRODUCT(N(H$2:H$16=$A12))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
         <f t="shared" ref="K12" si="70">SUMPRODUCT(N(J$2:J$16=$A12))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="M12" s="1">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
         <f t="shared" ref="O12" si="71">SUMPRODUCT(N(N$2:N$16=$A12))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="1">
         <f t="shared" ref="Q12" si="72">SUMPRODUCT(N(P$2:P$16=$A12))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R12">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="S12" s="1">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="T12">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
         <f t="shared" ref="U12" si="73">SUMPRODUCT(N(T$2:T$16=$A12))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V12">
         <v>0</v>
@@ -1658,84 +1644,81 @@
       </c>
       <c r="AC12">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="AE12">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="AH12" s="3">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D13">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E13" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F13">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="G13" s="1">
         <f t="shared" ref="G13" si="75">SUMPRODUCT(N(F$2:F$16=$A13))</f>
         <v>0</v>
       </c>
       <c r="H13">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="I13" s="1">
         <f t="shared" ref="I13" si="76">SUMPRODUCT(N(H$2:H$16=$A13))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
         <f t="shared" ref="K13" si="77">SUMPRODUCT(N(J$2:J$16=$A13))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="M13" s="1">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
         <f t="shared" ref="O13" si="78">SUMPRODUCT(N(N$2:N$16=$A13))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="Q13" s="1">
         <f t="shared" ref="Q13" si="79">SUMPRODUCT(N(P$2:P$16=$A13))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R13">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="S13" s="1">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="T13">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
         <f t="shared" ref="U13" si="80">SUMPRODUCT(N(T$2:T$16=$A13))</f>
@@ -1760,88 +1743,88 @@
       </c>
       <c r="AC13">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AE13">
         <v>13</v>
       </c>
       <c r="AH13" s="3">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D14">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E14" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F14">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="G14" s="1">
         <f t="shared" ref="G14" si="82">SUMPRODUCT(N(F$2:F$16=$A14))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="I14" s="1">
         <f t="shared" ref="I14" si="83">SUMPRODUCT(N(H$2:H$16=$A14))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
         <f t="shared" ref="K14" si="84">SUMPRODUCT(N(J$2:J$16=$A14))</f>
         <v>0</v>
       </c>
       <c r="L14">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="M14" s="1">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
         <f t="shared" ref="O14" si="85">SUMPRODUCT(N(N$2:N$16=$A14))</f>
         <v>0</v>
       </c>
       <c r="P14">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="1">
         <f t="shared" ref="Q14" si="86">SUMPRODUCT(N(P$2:P$16=$A14))</f>
         <v>0</v>
       </c>
       <c r="R14">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="S14" s="1">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T14">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
         <f t="shared" ref="U14" si="87">SUMPRODUCT(N(T$2:T$16=$A14))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V14">
         <v>0</v>
@@ -1862,85 +1845,85 @@
       </c>
       <c r="AC14">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AH14" s="3">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B15">
         <v>21</v>
       </c>
       <c r="C15" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15">
         <v>22</v>
       </c>
       <c r="E15" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G15" s="1">
         <f t="shared" ref="G15" si="89">SUMPRODUCT(N(F$2:F$16=$A15))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="I15" s="1">
         <f t="shared" ref="I15" si="90">SUMPRODUCT(N(H$2:H$16=$A15))</f>
         <v>0</v>
       </c>
       <c r="J15">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
         <f t="shared" ref="K15" si="91">SUMPRODUCT(N(J$2:J$16=$A15))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="M15" s="1">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="O15" s="1">
         <f t="shared" ref="O15" si="92">SUMPRODUCT(N(N$2:N$16=$A15))</f>
         <v>0</v>
       </c>
       <c r="P15">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="1">
         <f t="shared" ref="Q15" si="93">SUMPRODUCT(N(P$2:P$16=$A15))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R15">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="S15" s="1">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T15">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
         <f t="shared" ref="U15" si="94">SUMPRODUCT(N(T$2:T$16=$A15))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V15">
         <v>0</v>
@@ -1961,13 +1944,13 @@
       </c>
       <c r="AC15">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AE15">
         <v>15</v>
       </c>
       <c r="AH15" s="3">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.25">
@@ -1975,74 +1958,74 @@
         <v>23</v>
       </c>
       <c r="B16">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C16" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D16">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="G16" s="1">
         <f t="shared" ref="G16" si="96">SUMPRODUCT(N(F$2:F$16=$A16))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="I16" s="1">
         <f t="shared" ref="I16" si="97">SUMPRODUCT(N(H$2:H$16=$A16))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
         <f t="shared" ref="K16" si="98">SUMPRODUCT(N(J$2:J$16=$A16))</f>
         <v>0</v>
       </c>
       <c r="L16">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="M16" s="1">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="O16" s="1">
         <f t="shared" ref="O16" si="99">SUMPRODUCT(N(N$2:N$16=$A16))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="1">
         <f t="shared" ref="Q16" si="100">SUMPRODUCT(N(P$2:P$16=$A16))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R16">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="S16" s="1">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T16">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
         <f t="shared" ref="U16" si="101">SUMPRODUCT(N(T$2:T$16=$A16))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V16">
         <v>0</v>
@@ -2063,7 +2046,7 @@
       </c>
       <c r="AC16">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AE16">
         <v>16</v>
@@ -2073,7 +2056,7 @@
       <c r="A17" s="3"/>
       <c r="B17" s="8">
         <f>SUM(C2:C16)</f>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="8">
@@ -2083,42 +2066,42 @@
       <c r="E17" s="8"/>
       <c r="F17" s="8">
         <f>SUM(G2:G16)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G17" s="8"/>
       <c r="H17" s="8">
         <f>SUM(I2:I16)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8">
         <f>SUM(K2:K16)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K17" s="8"/>
       <c r="L17" s="8">
         <f>SUM(M2:M16)</f>
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="M17" s="8"/>
       <c r="N17" s="8">
         <f>SUM(O2:O16)</f>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="O17" s="8"/>
       <c r="P17" s="8">
         <f>SUM(Q2:Q16)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="8"/>
       <c r="R17" s="8">
         <f>SUM(S2:S16)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="S17" s="8"/>
       <c r="T17" s="8">
         <f>SUM(U2:U16)</f>
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="U17" s="8"/>
       <c r="V17" s="8">
@@ -2136,10 +2119,7 @@
       </c>
       <c r="AC17">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="AE17">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.25">
@@ -2148,7 +2128,7 @@
       </c>
       <c r="AC18">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AE18">
         <v>18</v>
@@ -2160,7 +2140,7 @@
       </c>
       <c r="AC19">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AE19">
         <v>19</v>
@@ -2172,7 +2152,10 @@
       </c>
       <c r="AC20">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="AE20">
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.25">
@@ -2181,7 +2164,7 @@
       </c>
       <c r="AC21">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AE21">
         <v>21</v>
@@ -2193,7 +2176,7 @@
       </c>
       <c r="AC22">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.25">
@@ -2202,10 +2185,7 @@
       </c>
       <c r="AC23">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="AE23">
-        <v>23</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.25">
@@ -2214,7 +2194,7 @@
       </c>
       <c r="AC24">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.25">
@@ -2223,7 +2203,7 @@
       </c>
       <c r="AC25">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/loto.xlsx
+++ b/loto.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="20115" windowHeight="7935"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="19320" windowHeight="7935"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
     <sheet name="Plan2" sheetId="2" r:id="rId2"/>
     <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -24,11 +24,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,14 +106,14 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -124,7 +124,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Currency" xfId="1" builtinId="4"/>
+    <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -138,9 +138,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Escritório">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -178,7 +178,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Escritório">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -212,7 +212,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -247,10 +246,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Escritório">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -423,14 +421,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AH25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AE1" sqref="AE1"/>
+      <selection activeCell="AG24" sqref="AG24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3" bestFit="1" customWidth="1"/>
@@ -462,7 +460,7 @@
     <col min="31" max="32" width="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -533,13 +531,16 @@
       </c>
       <c r="AC1">
         <f>SUMPRODUCT(N(B$2:B$16=AB1))+SUMPRODUCT(N(D$2:D$16=AB1))+SUMPRODUCT(N(F$2:F$16=AB1))+SUMPRODUCT(N(H$2:H$16=AB1))+SUMPRODUCT(N(J$2:J$16=AB1))+SUMPRODUCT(N(L$2:L$16=AB1))+SUMPRODUCT(N(N$2:N$16=AB1))+SUMPRODUCT(N(P$2:P$16=AB1))+SUMPRODUCT(N(R$2:R$16=AB1))+SUMPRODUCT(N(T$2:T$16=AB1))+SUMPRODUCT(N(V$2:V$16=AB1))+SUMPRODUCT(N(X$2:X$16=AB1))</f>
+        <v>2</v>
+      </c>
+      <c r="AE1">
         <v>1</v>
       </c>
       <c r="AH1" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -558,11 +559,11 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" s="1">
         <f>SUMPRODUCT(N(F$2:F$16=$A2))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -642,7 +643,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -661,7 +662,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G3" s="1">
         <f t="shared" ref="G3" si="2">SUMPRODUCT(N(F$2:F$16=$A3))</f>
@@ -739,13 +740,16 @@
       </c>
       <c r="AC3">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="AE3">
+        <v>3</v>
       </c>
       <c r="AH3" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -764,11 +768,11 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G4" s="1">
         <f t="shared" ref="G4" si="12">SUMPRODUCT(N(F$2:F$16=$A4))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -842,13 +846,13 @@
       </c>
       <c r="AC4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH4" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -867,11 +871,11 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" ref="G5" si="19">SUMPRODUCT(N(F$2:F$16=$A5))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -945,7 +949,7 @@
       </c>
       <c r="AC5">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE5">
         <v>5</v>
@@ -954,7 +958,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34">
       <c r="A6" s="3">
         <v>10</v>
       </c>
@@ -973,11 +977,11 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" ref="G6" si="26">SUMPRODUCT(N(F$2:F$16=$A6))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1053,7 +1057,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34">
       <c r="A7" s="3">
         <v>11</v>
       </c>
@@ -1072,7 +1076,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" ref="G7" si="33">SUMPRODUCT(N(F$2:F$16=$A7))</f>
@@ -1146,13 +1150,16 @@
       </c>
       <c r="AC7">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="AE7">
+        <v>7</v>
       </c>
       <c r="AH7" s="3">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34">
       <c r="A8" s="3">
         <v>12</v>
       </c>
@@ -1171,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" ref="G8" si="40">SUMPRODUCT(N(F$2:F$16=$A8))</f>
@@ -1245,13 +1252,13 @@
       </c>
       <c r="AC8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH8" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34">
       <c r="A9" s="3">
         <v>15</v>
       </c>
@@ -1270,7 +1277,7 @@
         <v>1</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G9" s="1">
         <f t="shared" ref="G9" si="47">SUMPRODUCT(N(F$2:F$16=$A9))</f>
@@ -1344,7 +1351,7 @@
       </c>
       <c r="AC9">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE9">
         <v>9</v>
@@ -1353,7 +1360,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:34">
       <c r="A10" s="3">
         <v>16</v>
       </c>
@@ -1372,11 +1379,11 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G10" s="1">
         <f t="shared" ref="G10" si="54">SUMPRODUCT(N(F$2:F$16=$A10))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1446,13 +1453,16 @@
       </c>
       <c r="AC10">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="AE10">
+        <v>10</v>
       </c>
       <c r="AH10" s="3">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:34">
       <c r="A11" s="3">
         <v>17</v>
       </c>
@@ -1471,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G11" s="1">
         <f t="shared" ref="G11" si="61">SUMPRODUCT(N(F$2:F$16=$A11))</f>
@@ -1551,7 +1561,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:34">
       <c r="A12" s="3">
         <v>18</v>
       </c>
@@ -1570,11 +1580,11 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G12" s="1">
         <f t="shared" ref="G12" si="68">SUMPRODUCT(N(F$2:F$16=$A12))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1650,7 +1660,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34">
       <c r="A13" s="3">
         <v>19</v>
       </c>
@@ -1669,7 +1679,7 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="G13" s="1">
         <f t="shared" ref="G13" si="75">SUMPRODUCT(N(F$2:F$16=$A13))</f>
@@ -1752,7 +1762,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34">
       <c r="A14" s="3">
         <v>21</v>
       </c>
@@ -1771,11 +1781,11 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G14" s="1">
         <f t="shared" ref="G14" si="82">SUMPRODUCT(N(F$2:F$16=$A14))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1845,13 +1855,16 @@
       </c>
       <c r="AC14">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="AE14">
+        <v>14</v>
       </c>
       <c r="AH14" s="3">
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:34">
       <c r="A15" s="3">
         <v>22</v>
       </c>
@@ -1870,11 +1883,11 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="G15" s="1">
         <f t="shared" ref="G15" si="89">SUMPRODUCT(N(F$2:F$16=$A15))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1953,7 +1966,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:34">
       <c r="A16" s="3">
         <v>23</v>
       </c>
@@ -1972,7 +1985,7 @@
         <v>1</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G16" s="1">
         <f t="shared" ref="G16" si="96">SUMPRODUCT(N(F$2:F$16=$A16))</f>
@@ -2046,13 +2059,13 @@
       </c>
       <c r="AC16">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE16">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:31">
       <c r="A17" s="3"/>
       <c r="B17" s="8">
         <f>SUM(C2:C16)</f>
@@ -2066,7 +2079,7 @@
       <c r="E17" s="8"/>
       <c r="F17" s="8">
         <f>SUM(G2:G16)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G17" s="8"/>
       <c r="H17" s="8">
@@ -2122,19 +2135,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:31">
       <c r="AB18" s="6">
         <v>18</v>
       </c>
       <c r="AC18">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE18">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:31">
       <c r="AB19" s="6">
         <v>19</v>
       </c>
@@ -2146,7 +2159,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:31">
       <c r="AB20" s="6">
         <v>20</v>
       </c>
@@ -2158,28 +2171,31 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:31">
       <c r="AB21" s="6">
         <v>21</v>
       </c>
       <c r="AC21">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE21">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:31">
       <c r="AB22" s="6">
         <v>22</v>
       </c>
       <c r="AC22">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="AE22">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31">
       <c r="AB23" s="6">
         <v>23</v>
       </c>
@@ -2188,50 +2204,53 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:31">
       <c r="AB24" s="6">
         <v>24</v>
       </c>
       <c r="AC24">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="AE24">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31">
       <c r="AB25" s="6">
         <v>25</v>
       </c>
       <c r="AC25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="T17:U17"/>
+    <mergeCell ref="V17:W17"/>
+    <mergeCell ref="X17:Y17"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="R17:S17"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:M17"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="R17:S17"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="T17:U17"/>
-    <mergeCell ref="V17:W17"/>
-    <mergeCell ref="X17:Y17"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2239,24 +2258,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/loto.xlsx
+++ b/loto.xlsx
@@ -425,7 +425,7 @@
   <dimension ref="A1:AH25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AG24" sqref="AG24"/>
+      <selection activeCell="AE10" sqref="AE10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -531,7 +531,7 @@
       </c>
       <c r="AC1">
         <f>SUMPRODUCT(N(B$2:B$16=AB1))+SUMPRODUCT(N(D$2:D$16=AB1))+SUMPRODUCT(N(F$2:F$16=AB1))+SUMPRODUCT(N(H$2:H$16=AB1))+SUMPRODUCT(N(J$2:J$16=AB1))+SUMPRODUCT(N(L$2:L$16=AB1))+SUMPRODUCT(N(N$2:N$16=AB1))+SUMPRODUCT(N(P$2:P$16=AB1))+SUMPRODUCT(N(R$2:R$16=AB1))+SUMPRODUCT(N(T$2:T$16=AB1))+SUMPRODUCT(N(V$2:V$16=AB1))+SUMPRODUCT(N(X$2:X$16=AB1))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE1">
         <v>1</v>
@@ -566,11 +566,11 @@
         <v>1</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" s="1">
         <f>SUMPRODUCT(N(H$2:H$16=$A2))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -637,7 +637,7 @@
       </c>
       <c r="AC2">
         <f t="shared" ref="AC2:AC25" si="0">SUMPRODUCT(N(B$2:B$16=AB2))+SUMPRODUCT(N(D$2:D$16=AB2))+SUMPRODUCT(N(F$2:F$16=AB2))+SUMPRODUCT(N(H$2:H$16=AB2))+SUMPRODUCT(N(J$2:J$16=AB2))+SUMPRODUCT(N(L$2:L$16=AB2))+SUMPRODUCT(N(N$2:N$16=AB2))+SUMPRODUCT(N(P$2:P$16=AB2))+SUMPRODUCT(N(R$2:R$16=AB2))+SUMPRODUCT(N(T$2:T$16=AB2))+SUMPRODUCT(N(V$2:V$16=AB2))+SUMPRODUCT(N(X$2:X$16=AB2))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH2" s="3">
         <v>2</v>
@@ -669,11 +669,11 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" s="1">
         <f t="shared" ref="I3" si="3">SUMPRODUCT(N(H$2:H$16=$A3))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -740,7 +740,7 @@
       </c>
       <c r="AC3">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE3">
         <v>3</v>
@@ -775,11 +775,11 @@
         <v>1</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I4" s="1">
         <f t="shared" ref="I4" si="13">SUMPRODUCT(N(H$2:H$16=$A4))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -878,7 +878,7 @@
         <v>1</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I5" s="1">
         <f t="shared" ref="I5" si="20">SUMPRODUCT(N(H$2:H$16=$A5))</f>
@@ -984,7 +984,7 @@
         <v>1</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I6" s="1">
         <f t="shared" ref="I6" si="27">SUMPRODUCT(N(H$2:H$16=$A6))</f>
@@ -1051,7 +1051,7 @@
       </c>
       <c r="AC6">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH6" s="3">
         <v>11</v>
@@ -1083,11 +1083,11 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I7" s="1">
         <f t="shared" ref="I7" si="34">SUMPRODUCT(N(H$2:H$16=$A7))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -1150,7 +1150,7 @@
       </c>
       <c r="AC7">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE7">
         <v>7</v>
@@ -1185,7 +1185,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I8" s="1">
         <f t="shared" ref="I8" si="41">SUMPRODUCT(N(H$2:H$16=$A8))</f>
@@ -1252,7 +1252,7 @@
       </c>
       <c r="AC8">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH8" s="3">
         <v>15</v>
@@ -1284,7 +1284,7 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I9" s="1">
         <f t="shared" ref="I9" si="48">SUMPRODUCT(N(H$2:H$16=$A9))</f>
@@ -1351,7 +1351,7 @@
       </c>
       <c r="AC9">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE9">
         <v>9</v>
@@ -1386,11 +1386,11 @@
         <v>1</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="I10" s="1">
         <f t="shared" ref="I10" si="55">SUMPRODUCT(N(H$2:H$16=$A10))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="I11" s="1">
         <f t="shared" ref="I11" si="62">SUMPRODUCT(N(H$2:H$16=$A11))</f>
@@ -1555,7 +1555,7 @@
       </c>
       <c r="AC11">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH11" s="3">
         <v>18</v>
@@ -1587,11 +1587,11 @@
         <v>1</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="I12" s="1">
         <f t="shared" ref="I12" si="69">SUMPRODUCT(N(H$2:H$16=$A12))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="I13" s="1">
         <f t="shared" ref="I13" si="76">SUMPRODUCT(N(H$2:H$16=$A13))</f>
@@ -1753,7 +1753,7 @@
       </c>
       <c r="AC13">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE13">
         <v>13</v>
@@ -1788,11 +1788,11 @@
         <v>1</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="I14" s="1">
         <f t="shared" ref="I14" si="83">SUMPRODUCT(N(H$2:H$16=$A14))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1855,7 +1855,7 @@
       </c>
       <c r="AC14">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE14">
         <v>14</v>
@@ -1890,11 +1890,11 @@
         <v>1</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="I15" s="1">
         <f t="shared" ref="I15" si="90">SUMPRODUCT(N(H$2:H$16=$A15))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1992,11 +1992,11 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="I16" s="1">
         <f t="shared" ref="I16" si="97">SUMPRODUCT(N(H$2:H$16=$A16))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -2059,7 +2059,7 @@
       </c>
       <c r="AC16">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE16">
         <v>16</v>
@@ -2084,7 +2084,7 @@
       <c r="G17" s="8"/>
       <c r="H17" s="8">
         <f>SUM(I2:I16)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8">
@@ -2141,7 +2141,7 @@
       </c>
       <c r="AC18">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE18">
         <v>18</v>
@@ -2177,7 +2177,7 @@
       </c>
       <c r="AC21">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE21">
         <v>21</v>
@@ -2189,7 +2189,7 @@
       </c>
       <c r="AC22">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE22">
         <v>22</v>
@@ -2201,7 +2201,7 @@
       </c>
       <c r="AC23">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:31">
@@ -2227,30 +2227,30 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="R17:S17"/>
     <mergeCell ref="T1:U1"/>
     <mergeCell ref="V1:W1"/>
     <mergeCell ref="X1:Y1"/>
     <mergeCell ref="T17:U17"/>
     <mergeCell ref="V17:W17"/>
     <mergeCell ref="X17:Y17"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="R17:S17"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="F17:G17"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/loto.xlsx
+++ b/loto.xlsx
@@ -425,7 +425,7 @@
   <dimension ref="A1:AH25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AE10" sqref="AE10"/>
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -531,7 +531,7 @@
       </c>
       <c r="AC1">
         <f>SUMPRODUCT(N(B$2:B$16=AB1))+SUMPRODUCT(N(D$2:D$16=AB1))+SUMPRODUCT(N(F$2:F$16=AB1))+SUMPRODUCT(N(H$2:H$16=AB1))+SUMPRODUCT(N(J$2:J$16=AB1))+SUMPRODUCT(N(L$2:L$16=AB1))+SUMPRODUCT(N(N$2:N$16=AB1))+SUMPRODUCT(N(P$2:P$16=AB1))+SUMPRODUCT(N(R$2:R$16=AB1))+SUMPRODUCT(N(T$2:T$16=AB1))+SUMPRODUCT(N(V$2:V$16=AB1))+SUMPRODUCT(N(X$2:X$16=AB1))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE1">
         <v>1</v>
@@ -573,11 +573,11 @@
         <v>1</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" s="1">
         <f>SUMPRODUCT(N(J$2:J$16=$A2))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -637,6 +637,9 @@
       </c>
       <c r="AC2">
         <f t="shared" ref="AC2:AC25" si="0">SUMPRODUCT(N(B$2:B$16=AB2))+SUMPRODUCT(N(D$2:D$16=AB2))+SUMPRODUCT(N(F$2:F$16=AB2))+SUMPRODUCT(N(H$2:H$16=AB2))+SUMPRODUCT(N(J$2:J$16=AB2))+SUMPRODUCT(N(L$2:L$16=AB2))+SUMPRODUCT(N(N$2:N$16=AB2))+SUMPRODUCT(N(P$2:P$16=AB2))+SUMPRODUCT(N(R$2:R$16=AB2))+SUMPRODUCT(N(T$2:T$16=AB2))+SUMPRODUCT(N(V$2:V$16=AB2))+SUMPRODUCT(N(X$2:X$16=AB2))</f>
+        <v>3</v>
+      </c>
+      <c r="AE2">
         <v>2</v>
       </c>
       <c r="AH2" s="3">
@@ -676,11 +679,11 @@
         <v>1</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K3" s="1">
         <f t="shared" ref="K3" si="4">SUMPRODUCT(N(J$2:J$16=$A3))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -782,7 +785,7 @@
         <v>1</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K4" s="1">
         <f t="shared" ref="K4" si="14">SUMPRODUCT(N(J$2:J$16=$A4))</f>
@@ -846,7 +849,7 @@
       </c>
       <c r="AC4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH4" s="3">
         <v>4</v>
@@ -885,11 +888,11 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K5" s="1">
         <f t="shared" ref="K5" si="21">SUMPRODUCT(N(J$2:J$16=$A5))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -991,11 +994,11 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K6" s="1">
         <f t="shared" ref="K6" si="28">SUMPRODUCT(N(J$2:J$16=$A6))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1090,11 +1093,11 @@
         <v>1</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K7" s="1">
         <f t="shared" ref="K7" si="35">SUMPRODUCT(N(J$2:J$16=$A7))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -1150,7 +1153,7 @@
       </c>
       <c r="AC7">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE7">
         <v>7</v>
@@ -1192,11 +1195,11 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="K8" s="1">
         <f t="shared" ref="K8" si="42">SUMPRODUCT(N(J$2:J$16=$A8))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1291,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K9" s="1">
         <f t="shared" ref="K9" si="49">SUMPRODUCT(N(J$2:J$16=$A9))</f>
@@ -1351,7 +1354,7 @@
       </c>
       <c r="AC9">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE9">
         <v>9</v>
@@ -1393,7 +1396,7 @@
         <v>1</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="K10" s="1">
         <f t="shared" ref="K10" si="56">SUMPRODUCT(N(J$2:J$16=$A10))</f>
@@ -1453,7 +1456,7 @@
       </c>
       <c r="AC10">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE10">
         <v>10</v>
@@ -1495,11 +1498,11 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="K11" s="1">
         <f t="shared" ref="K11" si="63">SUMPRODUCT(N(J$2:J$16=$A11))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -1555,7 +1558,10 @@
       </c>
       <c r="AC11">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="AE11">
+        <v>11</v>
       </c>
       <c r="AH11" s="3">
         <v>18</v>
@@ -1594,7 +1600,7 @@
         <v>1</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="K12" s="1">
         <f t="shared" ref="K12" si="70">SUMPRODUCT(N(J$2:J$16=$A12))</f>
@@ -1654,7 +1660,7 @@
       </c>
       <c r="AC12">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH12" s="3">
         <v>19</v>
@@ -1693,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K13" s="1">
         <f t="shared" ref="K13" si="77">SUMPRODUCT(N(J$2:J$16=$A13))</f>
@@ -1753,7 +1759,7 @@
       </c>
       <c r="AC13">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE13">
         <v>13</v>
@@ -1795,11 +1801,11 @@
         <v>1</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="K14" s="1">
         <f t="shared" ref="K14" si="84">SUMPRODUCT(N(J$2:J$16=$A14))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1855,7 +1861,7 @@
       </c>
       <c r="AC14">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE14">
         <v>14</v>
@@ -1897,11 +1903,11 @@
         <v>1</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="K15" s="1">
         <f t="shared" ref="K15" si="91">SUMPRODUCT(N(J$2:J$16=$A15))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1959,9 +1965,6 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="AE15">
-        <v>15</v>
-      </c>
       <c r="AH15" s="3">
         <v>23</v>
       </c>
@@ -1999,11 +2002,11 @@
         <v>1</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="K16" s="1">
         <f t="shared" ref="K16" si="98">SUMPRODUCT(N(J$2:J$16=$A16))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -2089,7 +2092,7 @@
       <c r="I17" s="8"/>
       <c r="J17" s="8">
         <f>SUM(K2:K16)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K17" s="8"/>
       <c r="L17" s="8">
@@ -2132,7 +2135,7 @@
       </c>
       <c r="AC17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:31">
@@ -2155,9 +2158,6 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="AE19">
-        <v>19</v>
-      </c>
     </row>
     <row r="20" spans="1:31">
       <c r="AB20" s="6">
@@ -2165,7 +2165,7 @@
       </c>
       <c r="AC20">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE20">
         <v>20</v>
@@ -2177,7 +2177,7 @@
       </c>
       <c r="AC21">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE21">
         <v>21</v>
@@ -2189,7 +2189,7 @@
       </c>
       <c r="AC22">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE22">
         <v>22</v>
@@ -2201,7 +2201,7 @@
       </c>
       <c r="AC23">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:31">
@@ -2212,9 +2212,6 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="AE24">
-        <v>24</v>
-      </c>
     </row>
     <row r="25" spans="1:31">
       <c r="AB25" s="6">
@@ -2227,30 +2224,30 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="T17:U17"/>
+    <mergeCell ref="V17:W17"/>
+    <mergeCell ref="X17:Y17"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="R17:S17"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:M17"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="R17:S17"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="T17:U17"/>
-    <mergeCell ref="V17:W17"/>
-    <mergeCell ref="X17:Y17"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/loto.xlsx
+++ b/loto.xlsx
@@ -422,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH25"/>
+  <dimension ref="A1:AJ25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S7" sqref="S7"/>
+      <selection activeCell="A2" sqref="A2:A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -460,7 +460,7 @@
     <col min="31" max="32" width="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:36">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -531,7 +531,7 @@
       </c>
       <c r="AC1">
         <f>SUMPRODUCT(N(B$2:B$16=AB1))+SUMPRODUCT(N(D$2:D$16=AB1))+SUMPRODUCT(N(F$2:F$16=AB1))+SUMPRODUCT(N(H$2:H$16=AB1))+SUMPRODUCT(N(J$2:J$16=AB1))+SUMPRODUCT(N(L$2:L$16=AB1))+SUMPRODUCT(N(N$2:N$16=AB1))+SUMPRODUCT(N(P$2:P$16=AB1))+SUMPRODUCT(N(R$2:R$16=AB1))+SUMPRODUCT(N(T$2:T$16=AB1))+SUMPRODUCT(N(V$2:V$16=AB1))+SUMPRODUCT(N(X$2:X$16=AB1))</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AE1">
         <v>1</v>
@@ -539,8 +539,14 @@
       <c r="AH1" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:34">
+      <c r="AI1" s="3">
+        <v>1</v>
+      </c>
+      <c r="AJ1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -580,28 +586,28 @@
         <v>1</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2" s="1">
         <f>SUMPRODUCT(N(L$2:L$16=$A2))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O2" s="1">
         <f>SUMPRODUCT(N(N$2:N$16=$A2))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q2" s="1">
         <f>SUMPRODUCT(N(P$2:P$16=$A2))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S2" s="1">
         <f>SUMPRODUCT(N(R$2:R$16=$A2))</f>
@@ -637,16 +643,19 @@
       </c>
       <c r="AC2">
         <f t="shared" ref="AC2:AC25" si="0">SUMPRODUCT(N(B$2:B$16=AB2))+SUMPRODUCT(N(D$2:D$16=AB2))+SUMPRODUCT(N(F$2:F$16=AB2))+SUMPRODUCT(N(H$2:H$16=AB2))+SUMPRODUCT(N(J$2:J$16=AB2))+SUMPRODUCT(N(L$2:L$16=AB2))+SUMPRODUCT(N(N$2:N$16=AB2))+SUMPRODUCT(N(P$2:P$16=AB2))+SUMPRODUCT(N(R$2:R$16=AB2))+SUMPRODUCT(N(T$2:T$16=AB2))+SUMPRODUCT(N(V$2:V$16=AB2))+SUMPRODUCT(N(X$2:X$16=AB2))</f>
-        <v>3</v>
-      </c>
-      <c r="AE2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AH2" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:34">
+      <c r="AI2" s="3">
+        <v>5</v>
+      </c>
+      <c r="AJ2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -686,28 +695,28 @@
         <v>1</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M3" s="1">
         <f t="shared" ref="M3:M16" si="5">SUMPRODUCT(N(L$2:L$16=$A3))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O3" s="1">
         <f t="shared" ref="O3" si="6">SUMPRODUCT(N(N$2:N$16=$A3))</f>
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q3" s="1">
         <f t="shared" ref="Q3" si="7">SUMPRODUCT(N(P$2:P$16=$A3))</f>
         <v>0</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S3" s="1">
         <f t="shared" ref="S3:S16" si="8">SUMPRODUCT(N(R$2:R$16=$A3))</f>
@@ -743,16 +752,19 @@
       </c>
       <c r="AC3">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="AE3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH3" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:34">
+      <c r="AI3" s="3">
+        <v>7</v>
+      </c>
+      <c r="AJ3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -792,28 +804,28 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M4" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O4" s="1">
         <f t="shared" ref="O4" si="15">SUMPRODUCT(N(N$2:N$16=$A4))</f>
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q4" s="1">
         <f t="shared" ref="Q4" si="16">SUMPRODUCT(N(P$2:P$16=$A4))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="S4" s="1">
         <f t="shared" si="8"/>
@@ -849,13 +861,19 @@
       </c>
       <c r="AC4">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH4" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:34">
+      <c r="AI4" s="3">
+        <v>9</v>
+      </c>
+      <c r="AJ4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -895,32 +913,32 @@
         <v>1</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M5" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="O5" s="1">
         <f t="shared" ref="O5" si="22">SUMPRODUCT(N(N$2:N$16=$A5))</f>
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q5" s="1">
         <f t="shared" ref="Q5" si="23">SUMPRODUCT(N(P$2:P$16=$A5))</f>
         <v>0</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="S5" s="1">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -952,7 +970,7 @@
       </c>
       <c r="AC5">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AE5">
         <v>5</v>
@@ -960,8 +978,14 @@
       <c r="AH5" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:34">
+      <c r="AI5" s="3">
+        <v>11</v>
+      </c>
+      <c r="AJ5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36">
       <c r="A6" s="3">
         <v>10</v>
       </c>
@@ -1001,32 +1025,32 @@
         <v>1</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="M6" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="O6" s="1">
         <f t="shared" ref="O6" si="29">SUMPRODUCT(N(N$2:N$16=$A6))</f>
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Q6" s="1">
         <f t="shared" ref="Q6" si="30">SUMPRODUCT(N(P$2:P$16=$A6))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="S6" s="1">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -1054,13 +1078,19 @@
       </c>
       <c r="AC6">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AH6" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:34">
+      <c r="AI6" s="3">
+        <v>13</v>
+      </c>
+      <c r="AJ6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36">
       <c r="A7" s="3">
         <v>11</v>
       </c>
@@ -1100,32 +1130,32 @@
         <v>1</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="M7" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="O7" s="1">
         <f t="shared" ref="O7" si="36">SUMPRODUCT(N(N$2:N$16=$A7))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Q7" s="1">
         <f t="shared" ref="Q7" si="37">SUMPRODUCT(N(P$2:P$16=$A7))</f>
         <v>0</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="S7" s="1">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -1153,7 +1183,7 @@
       </c>
       <c r="AC7">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AE7">
         <v>7</v>
@@ -1161,8 +1191,14 @@
       <c r="AH7" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:34">
+      <c r="AI7" s="3">
+        <v>14</v>
+      </c>
+      <c r="AJ7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36">
       <c r="A8" s="3">
         <v>12</v>
       </c>
@@ -1202,28 +1238,28 @@
         <v>1</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="M8" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="O8" s="1">
         <f t="shared" ref="O8" si="43">SUMPRODUCT(N(N$2:N$16=$A8))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q8" s="1">
         <f t="shared" ref="Q8" si="44">SUMPRODUCT(N(P$2:P$16=$A8))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S8" s="1">
         <f t="shared" si="8"/>
@@ -1255,13 +1291,19 @@
       </c>
       <c r="AC8">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AH8" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:34">
+      <c r="AI8" s="3">
+        <v>15</v>
+      </c>
+      <c r="AJ8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36">
       <c r="A9" s="3">
         <v>15</v>
       </c>
@@ -1301,28 +1343,28 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M9" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="O9" s="1">
         <f t="shared" ref="O9" si="50">SUMPRODUCT(N(N$2:N$16=$A9))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Q9" s="1">
         <f t="shared" ref="Q9" si="51">SUMPRODUCT(N(P$2:P$16=$A9))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="S9" s="1">
         <f t="shared" si="8"/>
@@ -1354,7 +1396,7 @@
       </c>
       <c r="AC9">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AE9">
         <v>9</v>
@@ -1362,8 +1404,14 @@
       <c r="AH9" s="3">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:34">
+      <c r="AI9" s="3">
+        <v>16</v>
+      </c>
+      <c r="AJ9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36">
       <c r="A10" s="3">
         <v>16</v>
       </c>
@@ -1403,32 +1451,32 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="M10" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="O10" s="1">
         <f t="shared" ref="O10" si="57">SUMPRODUCT(N(N$2:N$16=$A10))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="Q10" s="1">
         <f t="shared" ref="Q10" si="58">SUMPRODUCT(N(P$2:P$16=$A10))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="S10" s="1">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T10">
         <v>0</v>
@@ -1456,16 +1504,19 @@
       </c>
       <c r="AC10">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="AE10">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AH10" s="3">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:34">
+      <c r="AI10" s="3">
+        <v>18</v>
+      </c>
+      <c r="AJ10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36">
       <c r="A11" s="3">
         <v>17</v>
       </c>
@@ -1505,32 +1556,32 @@
         <v>1</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="M11" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="O11" s="1">
         <f t="shared" ref="O11" si="64">SUMPRODUCT(N(N$2:N$16=$A11))</f>
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Q11" s="1">
         <f t="shared" ref="Q11" si="65">SUMPRODUCT(N(P$2:P$16=$A11))</f>
         <v>0</v>
       </c>
       <c r="R11">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="S11" s="1">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T11">
         <v>0</v>
@@ -1558,7 +1609,7 @@
       </c>
       <c r="AC11">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AE11">
         <v>11</v>
@@ -1566,8 +1617,11 @@
       <c r="AH11" s="3">
         <v>18</v>
       </c>
-    </row>
-    <row r="12" spans="1:34">
+      <c r="AI11" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36">
       <c r="A12" s="3">
         <v>18</v>
       </c>
@@ -1607,28 +1661,28 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="M12" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="O12" s="1">
         <f t="shared" ref="O12" si="71">SUMPRODUCT(N(N$2:N$16=$A12))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="Q12" s="1">
         <f t="shared" ref="Q12" si="72">SUMPRODUCT(N(P$2:P$16=$A12))</f>
         <v>0</v>
       </c>
       <c r="R12">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="S12" s="1">
         <f t="shared" si="8"/>
@@ -1660,13 +1714,16 @@
       </c>
       <c r="AC12">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AH12" s="3">
         <v>19</v>
       </c>
-    </row>
-    <row r="13" spans="1:34">
+      <c r="AI12" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36">
       <c r="A13" s="3">
         <v>19</v>
       </c>
@@ -1706,32 +1763,32 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="M13" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="O13" s="1">
         <f t="shared" ref="O13" si="78">SUMPRODUCT(N(N$2:N$16=$A13))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="Q13" s="1">
         <f t="shared" ref="Q13" si="79">SUMPRODUCT(N(P$2:P$16=$A13))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="S13" s="1">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T13">
         <v>0</v>
@@ -1759,7 +1816,7 @@
       </c>
       <c r="AC13">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE13">
         <v>13</v>
@@ -1767,8 +1824,11 @@
       <c r="AH13" s="3">
         <v>21</v>
       </c>
-    </row>
-    <row r="14" spans="1:34">
+      <c r="AI13" s="3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36">
       <c r="A14" s="3">
         <v>21</v>
       </c>
@@ -1808,28 +1868,28 @@
         <v>1</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="M14" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="O14" s="1">
         <f t="shared" ref="O14" si="85">SUMPRODUCT(N(N$2:N$16=$A14))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="Q14" s="1">
         <f t="shared" ref="Q14" si="86">SUMPRODUCT(N(P$2:P$16=$A14))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="S14" s="1">
         <f t="shared" si="8"/>
@@ -1861,7 +1921,7 @@
       </c>
       <c r="AC14">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AE14">
         <v>14</v>
@@ -1869,8 +1929,11 @@
       <c r="AH14" s="3">
         <v>22</v>
       </c>
-    </row>
-    <row r="15" spans="1:34">
+      <c r="AI14" s="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36">
       <c r="A15" s="3">
         <v>22</v>
       </c>
@@ -1910,28 +1973,28 @@
         <v>1</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="M15" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="O15" s="1">
         <f t="shared" ref="O15" si="92">SUMPRODUCT(N(N$2:N$16=$A15))</f>
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="Q15" s="1">
         <f t="shared" ref="Q15" si="93">SUMPRODUCT(N(P$2:P$16=$A15))</f>
         <v>0</v>
       </c>
       <c r="R15">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="S15" s="1">
         <f t="shared" si="8"/>
@@ -1963,13 +2026,19 @@
       </c>
       <c r="AC15">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="AE15">
+        <v>15</v>
       </c>
       <c r="AH15" s="3">
         <v>23</v>
       </c>
-    </row>
-    <row r="16" spans="1:34">
+      <c r="AI15" s="3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36">
       <c r="A16" s="3">
         <v>23</v>
       </c>
@@ -2009,32 +2078,32 @@
         <v>1</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="M16" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="O16" s="1">
         <f t="shared" ref="O16" si="99">SUMPRODUCT(N(N$2:N$16=$A16))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Q16" s="1">
         <f t="shared" ref="Q16" si="100">SUMPRODUCT(N(P$2:P$16=$A16))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="S16" s="1">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T16">
         <v>0</v>
@@ -2062,7 +2131,7 @@
       </c>
       <c r="AC16">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AE16">
         <v>16</v>
@@ -2097,22 +2166,22 @@
       <c r="K17" s="8"/>
       <c r="L17" s="8">
         <f>SUM(M2:M16)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M17" s="8"/>
       <c r="N17" s="8">
         <f>SUM(O2:O16)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="O17" s="8"/>
       <c r="P17" s="8">
         <f>SUM(Q2:Q16)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Q17" s="8"/>
       <c r="R17" s="8">
         <f>SUM(S2:S16)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="S17" s="8"/>
       <c r="T17" s="8">
@@ -2135,7 +2204,7 @@
       </c>
       <c r="AC17">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:31">
@@ -2144,7 +2213,7 @@
       </c>
       <c r="AC18">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AE18">
         <v>18</v>
@@ -2156,7 +2225,10 @@
       </c>
       <c r="AC19">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="AE19">
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:31">
@@ -2165,7 +2237,7 @@
       </c>
       <c r="AC20">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE20">
         <v>20</v>
@@ -2177,7 +2249,7 @@
       </c>
       <c r="AC21">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AE21">
         <v>21</v>
@@ -2189,7 +2261,7 @@
       </c>
       <c r="AC22">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE22">
         <v>22</v>
@@ -2201,7 +2273,10 @@
       </c>
       <c r="AC23">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>7</v>
+      </c>
+      <c r="AE23">
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:31">
@@ -2210,7 +2285,7 @@
       </c>
       <c r="AC24">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:31">
@@ -2219,35 +2294,35 @@
       </c>
       <c r="AC25">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="R17:S17"/>
     <mergeCell ref="T1:U1"/>
     <mergeCell ref="V1:W1"/>
     <mergeCell ref="X1:Y1"/>
     <mergeCell ref="T17:U17"/>
     <mergeCell ref="V17:W17"/>
     <mergeCell ref="X17:Y17"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="R17:S17"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="F17:G17"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
